--- a/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 3 Drones/vel20/field_16ha_100ha_2%_6m_0_TSP/Planilha_Unificada.xlsx
@@ -4352,28 +4352,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>147.5048109397098</v>
+        <v>189.077496412012</v>
       </c>
       <c r="AB2" t="n">
-        <v>201.8225897806066</v>
+        <v>258.7041721012236</v>
       </c>
       <c r="AC2" t="n">
-        <v>182.5609250717866</v>
+        <v>234.0138090095443</v>
       </c>
       <c r="AD2" t="n">
-        <v>147504.8109397098</v>
+        <v>189077.4964120119</v>
       </c>
       <c r="AE2" t="n">
-        <v>201822.5897806066</v>
+        <v>258704.1721012236</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.402751533276436e-06</v>
+        <v>4.061970682407043e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.428819444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>182560.9250717866</v>
+        <v>234013.8090095443</v>
       </c>
     </row>
     <row r="3">
@@ -4458,28 +4458,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>112.1544554656449</v>
+        <v>153.727051429396</v>
       </c>
       <c r="AB3" t="n">
-        <v>153.4546738733991</v>
+        <v>210.3361337244678</v>
       </c>
       <c r="AC3" t="n">
-        <v>138.8091751739513</v>
+        <v>190.2619483304824</v>
       </c>
       <c r="AD3" t="n">
-        <v>112154.4554656449</v>
+        <v>153727.051429396</v>
       </c>
       <c r="AE3" t="n">
-        <v>153454.6738733991</v>
+        <v>210336.1337244678</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.920116066981565e-06</v>
+        <v>4.9366010962983e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.935763888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>138809.1751739513</v>
+        <v>190261.9483304824</v>
       </c>
     </row>
     <row r="4">
@@ -4564,28 +4564,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>108.4027124308642</v>
+        <v>139.7315058991779</v>
       </c>
       <c r="AB4" t="n">
-        <v>148.3213735379935</v>
+        <v>191.1868108901409</v>
       </c>
       <c r="AC4" t="n">
-        <v>134.1657898179229</v>
+        <v>172.9402099912141</v>
       </c>
       <c r="AD4" t="n">
-        <v>108402.7124308642</v>
+        <v>139731.5058991779</v>
       </c>
       <c r="AE4" t="n">
-        <v>148321.3735379935</v>
+        <v>191186.8108901409</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.104163860722369e-06</v>
+        <v>5.247743023369473e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.527777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>134165.7898179229</v>
+        <v>172940.2099912142</v>
       </c>
     </row>
     <row r="5">
@@ -4670,28 +4670,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>106.2779206873979</v>
+        <v>137.4361219551194</v>
       </c>
       <c r="AB5" t="n">
-        <v>145.4141397353884</v>
+        <v>188.0461653126889</v>
       </c>
       <c r="AC5" t="n">
-        <v>131.5360183291093</v>
+        <v>170.0993032197495</v>
       </c>
       <c r="AD5" t="n">
-        <v>106277.9206873979</v>
+        <v>137436.1219551194</v>
       </c>
       <c r="AE5" t="n">
-        <v>145414.1397353884</v>
+        <v>188046.1653126889</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.211768214450348e-06</v>
+        <v>5.429653522265872e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.310763888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>131536.0183291092</v>
+        <v>170099.3032197494</v>
       </c>
     </row>
     <row r="6">
@@ -4776,28 +4776,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>105.076384501457</v>
+        <v>136.2345857691784</v>
       </c>
       <c r="AB6" t="n">
-        <v>143.7701449177495</v>
+        <v>186.4021704950499</v>
       </c>
       <c r="AC6" t="n">
-        <v>130.048924069504</v>
+        <v>168.6122089601442</v>
       </c>
       <c r="AD6" t="n">
-        <v>105076.384501457</v>
+        <v>136234.5857691784</v>
       </c>
       <c r="AE6" t="n">
-        <v>143770.1449177495</v>
+        <v>186402.1704950499</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.266947540309988e-06</v>
+        <v>5.522936910420122e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.197916666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>130048.924069504</v>
+        <v>168612.2089601442</v>
       </c>
     </row>
     <row r="7">
@@ -4882,28 +4882,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>104.0786756193845</v>
+        <v>135.236876887106</v>
       </c>
       <c r="AB7" t="n">
-        <v>142.4050356094892</v>
+        <v>185.0370611867897</v>
       </c>
       <c r="AC7" t="n">
-        <v>128.8140988776807</v>
+        <v>167.3773837683209</v>
       </c>
       <c r="AD7" t="n">
-        <v>104078.6756193845</v>
+        <v>135236.876887106</v>
       </c>
       <c r="AE7" t="n">
-        <v>142405.0356094892</v>
+        <v>185037.0611867897</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.320002788905149e-06</v>
+        <v>5.612629440570125e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.102430555555555</v>
       </c>
       <c r="AH7" t="n">
-        <v>128814.0988776807</v>
+        <v>167377.3837683209</v>
       </c>
     </row>
     <row r="8">
@@ -4988,28 +4988,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>103.5125902056052</v>
+        <v>134.6707914733267</v>
       </c>
       <c r="AB8" t="n">
-        <v>141.6304925724309</v>
+        <v>184.2625181497313</v>
       </c>
       <c r="AC8" t="n">
-        <v>128.113477141001</v>
+        <v>166.6767620316412</v>
       </c>
       <c r="AD8" t="n">
-        <v>103512.5902056052</v>
+        <v>134670.7914733267</v>
       </c>
       <c r="AE8" t="n">
-        <v>141630.4925724308</v>
+        <v>184262.5181497313</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.347125621666952e-06</v>
+        <v>5.658481935085877e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>7</v>
+        <v>6.050347222222222</v>
       </c>
       <c r="AH8" t="n">
-        <v>128113.477141001</v>
+        <v>166676.7620316412</v>
       </c>
     </row>
     <row r="9">
@@ -5094,28 +5094,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>92.24830393098645</v>
+        <v>133.735559040166</v>
       </c>
       <c r="AB9" t="n">
-        <v>126.2181991462674</v>
+        <v>182.9828918751385</v>
       </c>
       <c r="AC9" t="n">
-        <v>114.1721113681361</v>
+        <v>165.5192614927283</v>
       </c>
       <c r="AD9" t="n">
-        <v>92248.30393098645</v>
+        <v>133735.5590401659</v>
       </c>
       <c r="AE9" t="n">
-        <v>126218.1991462674</v>
+        <v>182982.8918751385</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.378893414600527e-06</v>
+        <v>5.712186965237287e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.998263888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>114172.1113681361</v>
+        <v>165519.2614927283</v>
       </c>
     </row>
     <row r="10">
@@ -5200,28 +5200,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>91.90961872637529</v>
+        <v>133.3968738355548</v>
       </c>
       <c r="AB10" t="n">
-        <v>125.7547951075819</v>
+        <v>182.519487836453</v>
       </c>
       <c r="AC10" t="n">
-        <v>113.7529339605109</v>
+        <v>165.1000840851032</v>
       </c>
       <c r="AD10" t="n">
-        <v>91909.61872637528</v>
+        <v>133396.8738355548</v>
       </c>
       <c r="AE10" t="n">
-        <v>125754.7951075819</v>
+        <v>182519.487836453</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.378473267449312e-06</v>
+        <v>5.711476685632052e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.998263888888889</v>
       </c>
       <c r="AH10" t="n">
-        <v>113752.9339605109</v>
+        <v>165100.0840851032</v>
       </c>
     </row>
     <row r="11">
@@ -5306,28 +5306,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>91.45870450022947</v>
+        <v>132.945959609409</v>
       </c>
       <c r="AB11" t="n">
-        <v>125.1378343704379</v>
+        <v>181.9025270993089</v>
       </c>
       <c r="AC11" t="n">
-        <v>113.1948550902099</v>
+        <v>164.5420052148021</v>
       </c>
       <c r="AD11" t="n">
-        <v>91458.70450022948</v>
+        <v>132945.959609409</v>
       </c>
       <c r="AE11" t="n">
-        <v>125137.8343704379</v>
+        <v>181902.5270993089</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.403378656913032e-06</v>
+        <v>5.753580482231283e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.954861111111111</v>
       </c>
       <c r="AH11" t="n">
-        <v>113194.8550902099</v>
+        <v>164542.0052148021</v>
       </c>
     </row>
     <row r="12">
@@ -5412,28 +5412,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>90.84238031571242</v>
+        <v>132.3296354248919</v>
       </c>
       <c r="AB12" t="n">
-        <v>124.294552430878</v>
+        <v>181.0592451597491</v>
       </c>
       <c r="AC12" t="n">
-        <v>112.4320547954077</v>
+        <v>163.77920492</v>
       </c>
       <c r="AD12" t="n">
-        <v>90842.38031571242</v>
+        <v>132329.6354248919</v>
       </c>
       <c r="AE12" t="n">
-        <v>124294.552430878</v>
+        <v>181059.2451597491</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.405852856803524e-06</v>
+        <v>5.757763239906559e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.946180555555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>112432.0547954077</v>
+        <v>163779.20492</v>
       </c>
     </row>
     <row r="13">
@@ -5518,28 +5518,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>90.14712747955721</v>
+        <v>121.3905800932993</v>
       </c>
       <c r="AB13" t="n">
-        <v>123.3432768280606</v>
+        <v>166.0919470580103</v>
       </c>
       <c r="AC13" t="n">
-        <v>111.5715676009992</v>
+        <v>150.2403647423516</v>
       </c>
       <c r="AD13" t="n">
-        <v>90147.12747955721</v>
+        <v>121390.5800932993</v>
       </c>
       <c r="AE13" t="n">
-        <v>123343.2768280606</v>
+        <v>166091.9470580103</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.43523981588021e-06</v>
+        <v>5.807443352294968e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.894097222222222</v>
       </c>
       <c r="AH13" t="n">
-        <v>111571.5676009992</v>
+        <v>150240.3647423516</v>
       </c>
     </row>
     <row r="14">
@@ -5624,28 +5624,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>90.11633360918448</v>
+        <v>121.3597862229265</v>
       </c>
       <c r="AB14" t="n">
-        <v>123.301143296087</v>
+        <v>166.0498135260367</v>
       </c>
       <c r="AC14" t="n">
-        <v>111.5334552341823</v>
+        <v>150.2022523755347</v>
       </c>
       <c r="AD14" t="n">
-        <v>90116.33360918448</v>
+        <v>121359.7862229265</v>
       </c>
       <c r="AE14" t="n">
-        <v>123301.143296087</v>
+        <v>166049.8135260367</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.433419178224943e-06</v>
+        <v>5.804365474005615e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.902777777777778</v>
       </c>
       <c r="AH14" t="n">
-        <v>111533.4552341823</v>
+        <v>150202.2523755347</v>
       </c>
     </row>
     <row r="15">
@@ -5730,28 +5730,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>89.54557727294646</v>
+        <v>120.7890298866885</v>
       </c>
       <c r="AB15" t="n">
-        <v>122.520209296854</v>
+        <v>165.2688795268038</v>
       </c>
       <c r="AC15" t="n">
-        <v>110.8270524797882</v>
+        <v>149.4958496211406</v>
       </c>
       <c r="AD15" t="n">
-        <v>89545.57727294647</v>
+        <v>120789.0298866885</v>
       </c>
       <c r="AE15" t="n">
-        <v>122520.209296854</v>
+        <v>165268.8795268038</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.438624334598336e-06</v>
+        <v>5.81316504911492e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.894097222222222</v>
       </c>
       <c r="AH15" t="n">
-        <v>110827.0524797882</v>
+        <v>149495.8496211406</v>
       </c>
     </row>
     <row r="16">
@@ -5836,28 +5836,28 @@
         <v>10</v>
       </c>
       <c r="AA16" t="n">
-        <v>89.10905894501654</v>
+        <v>120.3525115587586</v>
       </c>
       <c r="AB16" t="n">
-        <v>121.9229456627511</v>
+        <v>164.6716158927009</v>
       </c>
       <c r="AC16" t="n">
-        <v>110.2867908486591</v>
+        <v>148.9555879900115</v>
       </c>
       <c r="AD16" t="n">
-        <v>89109.05894501654</v>
+        <v>120352.5115587586</v>
       </c>
       <c r="AE16" t="n">
-        <v>121922.9456627512</v>
+        <v>164671.6158927009</v>
       </c>
       <c r="AF16" t="n">
-        <v>3.439744727001577e-06</v>
+        <v>5.815059128062214e-06</v>
       </c>
       <c r="AG16" t="n">
-        <v>6</v>
+        <v>5.894097222222222</v>
       </c>
       <c r="AH16" t="n">
-        <v>110286.7908486591</v>
+        <v>148955.5879900115</v>
       </c>
     </row>
     <row r="17">
@@ -5942,28 +5942,28 @@
         <v>10</v>
       </c>
       <c r="AA17" t="n">
-        <v>89.22387651796117</v>
+        <v>120.4673291317032</v>
       </c>
       <c r="AB17" t="n">
-        <v>122.0800441314477</v>
+        <v>164.8287143613975</v>
       </c>
       <c r="AC17" t="n">
-        <v>110.4288960599924</v>
+        <v>149.0976932013448</v>
       </c>
       <c r="AD17" t="n">
-        <v>89223.87651796118</v>
+        <v>120467.3291317032</v>
       </c>
       <c r="AE17" t="n">
-        <v>122080.0441314477</v>
+        <v>164828.7143613975</v>
       </c>
       <c r="AF17" t="n">
-        <v>3.439184530799956e-06</v>
+        <v>5.814112088588567e-06</v>
       </c>
       <c r="AG17" t="n">
-        <v>6</v>
+        <v>5.894097222222222</v>
       </c>
       <c r="AH17" t="n">
-        <v>110428.8960599924</v>
+        <v>149097.6932013448</v>
       </c>
     </row>
   </sheetData>
@@ -6239,28 +6239,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>122.4003376559032</v>
+        <v>162.7626090313432</v>
       </c>
       <c r="AB2" t="n">
-        <v>167.473541902524</v>
+        <v>222.6989822561139</v>
       </c>
       <c r="AC2" t="n">
-        <v>151.4901021139858</v>
+        <v>201.444903949639</v>
       </c>
       <c r="AD2" t="n">
-        <v>122400.3376559032</v>
+        <v>162762.6090313432</v>
       </c>
       <c r="AE2" t="n">
-        <v>167473.541902524</v>
+        <v>222698.9822561138</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.767064027609623e-06</v>
+        <v>4.791976600144297e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.578125</v>
       </c>
       <c r="AH2" t="n">
-        <v>151490.1021139858</v>
+        <v>201444.903949639</v>
       </c>
     </row>
     <row r="3">
@@ -6345,28 +6345,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>102.6611231577296</v>
+        <v>132.847575343289</v>
       </c>
       <c r="AB3" t="n">
-        <v>140.465477793453</v>
+        <v>181.7679134059962</v>
       </c>
       <c r="AC3" t="n">
-        <v>127.05964973742</v>
+        <v>164.4202388634476</v>
       </c>
       <c r="AD3" t="n">
-        <v>102661.1231577296</v>
+        <v>132847.575343289</v>
       </c>
       <c r="AE3" t="n">
-        <v>140465.477793453</v>
+        <v>181767.9134059962</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.239562032690692e-06</v>
+        <v>5.610244396397394e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.467013888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>127059.64973742</v>
+        <v>164420.2388634476</v>
       </c>
     </row>
     <row r="4">
@@ -6451,28 +6451,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>100.1578807061922</v>
+        <v>130.3443328917516</v>
       </c>
       <c r="AB4" t="n">
-        <v>137.0404310359985</v>
+        <v>178.3428666485416</v>
       </c>
       <c r="AC4" t="n">
-        <v>123.9614846354125</v>
+        <v>161.3220737614401</v>
       </c>
       <c r="AD4" t="n">
-        <v>100157.8807061922</v>
+        <v>130344.3328917516</v>
       </c>
       <c r="AE4" t="n">
-        <v>137040.4310359985</v>
+        <v>178342.8666485416</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.396658926653153e-06</v>
+        <v>5.882303384665109e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.171875</v>
       </c>
       <c r="AH4" t="n">
-        <v>123961.4846354125</v>
+        <v>161322.0737614401</v>
       </c>
     </row>
     <row r="5">
@@ -6557,28 +6557,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>88.17544106487905</v>
+        <v>128.3670307311758</v>
       </c>
       <c r="AB5" t="n">
-        <v>120.6455284908337</v>
+        <v>175.6374346000283</v>
       </c>
       <c r="AC5" t="n">
-        <v>109.1312885787628</v>
+        <v>158.8748443505383</v>
       </c>
       <c r="AD5" t="n">
-        <v>88175.44106487905</v>
+        <v>128367.0307311758</v>
       </c>
       <c r="AE5" t="n">
-        <v>120645.5284908337</v>
+        <v>175637.4346000283</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.503434589902768e-06</v>
+        <v>6.067216518098837e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.980902777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>109131.2885787628</v>
+        <v>158874.8443505383</v>
       </c>
     </row>
     <row r="6">
@@ -6663,28 +6663,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>87.11789167340145</v>
+        <v>117.3895952049814</v>
       </c>
       <c r="AB6" t="n">
-        <v>119.1985427576285</v>
+        <v>160.6176230228209</v>
       </c>
       <c r="AC6" t="n">
-        <v>107.8224011330769</v>
+        <v>145.2885025098168</v>
       </c>
       <c r="AD6" t="n">
-        <v>87117.89167340145</v>
+        <v>117389.5952049814</v>
       </c>
       <c r="AE6" t="n">
-        <v>119198.5427576285</v>
+        <v>160617.6230228209</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.563028062743124e-06</v>
+        <v>6.170419958468452e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.885416666666667</v>
       </c>
       <c r="AH6" t="n">
-        <v>107822.4011330769</v>
+        <v>145288.5025098168</v>
       </c>
     </row>
     <row r="7">
@@ -6769,28 +6769,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>86.60339342806328</v>
+        <v>116.8750969596433</v>
       </c>
       <c r="AB7" t="n">
-        <v>118.4945835602965</v>
+        <v>159.9136638254889</v>
       </c>
       <c r="AC7" t="n">
-        <v>107.1856268135252</v>
+        <v>144.651728190265</v>
       </c>
       <c r="AD7" t="n">
-        <v>86603.39342806328</v>
+        <v>116875.0969596433</v>
       </c>
       <c r="AE7" t="n">
-        <v>118494.5835602965</v>
+        <v>159913.6638254889</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.58536354182632e-06</v>
+        <v>6.20910034029256e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.842013888888889</v>
       </c>
       <c r="AH7" t="n">
-        <v>107185.6268135252</v>
+        <v>144651.728190265</v>
       </c>
     </row>
     <row r="8">
@@ -6875,28 +6875,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>85.84343783019587</v>
+        <v>116.1151413617759</v>
       </c>
       <c r="AB8" t="n">
-        <v>117.4547787844201</v>
+        <v>158.8738590496124</v>
       </c>
       <c r="AC8" t="n">
-        <v>106.2450595460829</v>
+        <v>143.7111609228227</v>
       </c>
       <c r="AD8" t="n">
-        <v>85843.43783019586</v>
+        <v>116115.1413617759</v>
       </c>
       <c r="AE8" t="n">
-        <v>117454.7787844201</v>
+        <v>158873.8590496124</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.617599071097745e-06</v>
+        <v>6.26492554000627e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.789930555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>106245.0595460829</v>
+        <v>143711.1609228227</v>
       </c>
     </row>
     <row r="9">
@@ -6981,28 +6981,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>85.19300208638101</v>
+        <v>115.464705617961</v>
       </c>
       <c r="AB9" t="n">
-        <v>116.5648239045332</v>
+        <v>157.9839041697256</v>
       </c>
       <c r="AC9" t="n">
-        <v>105.4400407108726</v>
+        <v>142.9061420876125</v>
       </c>
       <c r="AD9" t="n">
-        <v>85193.00208638102</v>
+        <v>115464.705617961</v>
       </c>
       <c r="AE9" t="n">
-        <v>116564.8239045332</v>
+        <v>157983.9041697256</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.63759234318519e-06</v>
+        <v>6.299549708817471e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH9" t="n">
-        <v>105440.0407108726</v>
+        <v>142906.1420876125</v>
       </c>
     </row>
     <row r="10">
@@ -7087,28 +7087,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>84.57876862949635</v>
+        <v>114.8504721610763</v>
       </c>
       <c r="AB10" t="n">
-        <v>115.7244025907564</v>
+        <v>157.1434828559488</v>
       </c>
       <c r="AC10" t="n">
-        <v>104.6798280277437</v>
+        <v>142.1459294044836</v>
       </c>
       <c r="AD10" t="n">
-        <v>84578.76862949635</v>
+        <v>114850.4721610763</v>
       </c>
       <c r="AE10" t="n">
-        <v>115724.4025907564</v>
+        <v>157143.4828559488</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.647661418620533e-06</v>
+        <v>6.316987243110067e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.746527777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>104679.8280277437</v>
+        <v>142145.9294044836</v>
       </c>
     </row>
     <row r="11">
@@ -7193,28 +7193,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>83.84011762462798</v>
+        <v>114.111821156208</v>
       </c>
       <c r="AB11" t="n">
-        <v>114.7137476989135</v>
+        <v>156.1328279641059</v>
       </c>
       <c r="AC11" t="n">
-        <v>103.7656286203149</v>
+        <v>141.2317299970548</v>
       </c>
       <c r="AD11" t="n">
-        <v>83840.11762462798</v>
+        <v>114111.821156208</v>
       </c>
       <c r="AE11" t="n">
-        <v>114713.7476989135</v>
+        <v>156132.8279641059</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.671373246144532e-06</v>
+        <v>6.358051172787117e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.711805555555555</v>
       </c>
       <c r="AH11" t="n">
-        <v>103765.6286203149</v>
+        <v>141231.7299970548</v>
       </c>
     </row>
     <row r="12">
@@ -7299,28 +7299,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>83.90538641274013</v>
+        <v>114.1770899443201</v>
       </c>
       <c r="AB12" t="n">
-        <v>114.8030513342643</v>
+        <v>156.2221315994566</v>
       </c>
       <c r="AC12" t="n">
-        <v>103.8464092420462</v>
+        <v>141.3125106187861</v>
       </c>
       <c r="AD12" t="n">
-        <v>83905.38641274013</v>
+        <v>114177.0899443201</v>
       </c>
       <c r="AE12" t="n">
-        <v>114803.0513342643</v>
+        <v>156222.1315994567</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.67122836736129e-06</v>
+        <v>6.357800273013125e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.711805555555555</v>
       </c>
       <c r="AH12" t="n">
-        <v>103846.4092420463</v>
+        <v>141312.5106187861</v>
       </c>
     </row>
   </sheetData>
@@ -7596,28 +7596,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.28899827760796</v>
+        <v>111.5797790193257</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.0137289595659</v>
+        <v>152.66837620661</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.18224324836748</v>
+        <v>138.0979206529047</v>
       </c>
       <c r="AD2" t="n">
-        <v>75288.99827760796</v>
+        <v>111579.7790193257</v>
       </c>
       <c r="AE2" t="n">
-        <v>103013.7289595659</v>
+        <v>152668.37620661</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.898491167893767e-06</v>
+        <v>7.376784204876078e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.998263888888889</v>
       </c>
       <c r="AH2" t="n">
-        <v>93182.24324836748</v>
+        <v>138097.9206529047</v>
       </c>
     </row>
     <row r="3">
@@ -7702,28 +7702,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.09578811283035</v>
+        <v>99.44188495097606</v>
       </c>
       <c r="AB3" t="n">
-        <v>98.64463793762928</v>
+        <v>136.0607740562089</v>
       </c>
       <c r="AC3" t="n">
-        <v>89.23013214150536</v>
+        <v>123.0753247428165</v>
       </c>
       <c r="AD3" t="n">
-        <v>72095.78811283034</v>
+        <v>99441.88495097606</v>
       </c>
       <c r="AE3" t="n">
-        <v>98644.63793762929</v>
+        <v>136060.7740562088</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.214381874529285e-06</v>
+        <v>7.974517398263045e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.546875</v>
       </c>
       <c r="AH3" t="n">
-        <v>89230.13214150537</v>
+        <v>123075.3247428165</v>
       </c>
     </row>
     <row r="4">
@@ -7808,28 +7808,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>70.45276641678011</v>
+        <v>97.62827105433364</v>
       </c>
       <c r="AB4" t="n">
-        <v>96.39658316809303</v>
+        <v>133.5793075118257</v>
       </c>
       <c r="AC4" t="n">
-        <v>87.19662856400825</v>
+        <v>120.8306858826683</v>
       </c>
       <c r="AD4" t="n">
-        <v>70452.76641678011</v>
+        <v>97628.27105433364</v>
       </c>
       <c r="AE4" t="n">
-        <v>96396.58316809303</v>
+        <v>133579.3075118257</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.320810422056605e-06</v>
+        <v>8.175903112514028e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>87196.62856400825</v>
+        <v>120830.6858826683</v>
       </c>
     </row>
     <row r="5">
@@ -7914,28 +7914,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>70.49526553343574</v>
+        <v>97.67077017098927</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.45473233442992</v>
+        <v>133.6374566781626</v>
       </c>
       <c r="AC5" t="n">
-        <v>87.24922805552283</v>
+        <v>120.8832853741829</v>
       </c>
       <c r="AD5" t="n">
-        <v>70495.26553343574</v>
+        <v>97670.77017098927</v>
       </c>
       <c r="AE5" t="n">
-        <v>96454.73233442992</v>
+        <v>133637.4566781626</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.316014401433854e-06</v>
+        <v>8.166828009441452e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.416666666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>87249.22805552284</v>
+        <v>120883.2853741829</v>
       </c>
     </row>
   </sheetData>
@@ -8211,28 +8211,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>93.85918107622567</v>
+        <v>122.4344142677143</v>
       </c>
       <c r="AB2" t="n">
-        <v>128.4222723232666</v>
+        <v>167.5201670261579</v>
       </c>
       <c r="AC2" t="n">
-        <v>116.1658308945593</v>
+        <v>151.5322774012589</v>
       </c>
       <c r="AD2" t="n">
-        <v>93859.18107622566</v>
+        <v>122434.4142677143</v>
       </c>
       <c r="AE2" t="n">
-        <v>128422.2723232666</v>
+        <v>167520.1670261579</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.438263597707299e-06</v>
+        <v>6.26376957088203e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.510416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>116165.8308945593</v>
+        <v>151532.2774012589</v>
       </c>
     </row>
     <row r="3">
@@ -8317,28 +8317,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>79.32513400322728</v>
+        <v>107.8150263401442</v>
       </c>
       <c r="AB3" t="n">
-        <v>108.5361479210967</v>
+        <v>147.5172755017904</v>
       </c>
       <c r="AC3" t="n">
-        <v>98.17761029497525</v>
+        <v>133.4384337697361</v>
       </c>
       <c r="AD3" t="n">
-        <v>79325.13400322727</v>
+        <v>107815.0263401442</v>
       </c>
       <c r="AE3" t="n">
-        <v>108536.1479210967</v>
+        <v>147517.2755017904</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.829446375459465e-06</v>
+        <v>6.976419636912749e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.842013888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>98177.61029497525</v>
+        <v>133438.4337697361</v>
       </c>
     </row>
     <row r="4">
@@ -8423,28 +8423,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>77.54036124075155</v>
+        <v>106.0302535776685</v>
       </c>
       <c r="AB4" t="n">
-        <v>106.0941430888615</v>
+        <v>145.0752706695552</v>
       </c>
       <c r="AC4" t="n">
-        <v>95.96866697655246</v>
+        <v>131.2294904513133</v>
       </c>
       <c r="AD4" t="n">
-        <v>77540.36124075155</v>
+        <v>106030.2535776685</v>
       </c>
       <c r="AE4" t="n">
-        <v>106094.1430888615</v>
+        <v>145075.2706695552</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.962040221582102e-06</v>
+        <v>7.217976828508824e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.651041666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>95968.66697655246</v>
+        <v>131229.4904513133</v>
       </c>
     </row>
     <row r="5">
@@ -8529,28 +8529,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>76.44795048702909</v>
+        <v>104.9378428239461</v>
       </c>
       <c r="AB5" t="n">
-        <v>104.599458501858</v>
+        <v>143.5805860825517</v>
       </c>
       <c r="AC5" t="n">
-        <v>94.61663298872917</v>
+        <v>129.87745646349</v>
       </c>
       <c r="AD5" t="n">
-        <v>76447.95048702908</v>
+        <v>104937.8428239461</v>
       </c>
       <c r="AE5" t="n">
-        <v>104599.458501858</v>
+        <v>143580.5860825517</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.017098630469729e-06</v>
+        <v>7.31828129220424e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.572916666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>94616.63298872916</v>
+        <v>129877.45646349</v>
       </c>
     </row>
     <row r="6">
@@ -8635,28 +8635,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>75.63123935808571</v>
+        <v>104.1211316950027</v>
       </c>
       <c r="AB6" t="n">
-        <v>103.4819983044862</v>
+        <v>142.4631258851798</v>
       </c>
       <c r="AC6" t="n">
-        <v>93.60582162422888</v>
+        <v>128.8666450989897</v>
       </c>
       <c r="AD6" t="n">
-        <v>75631.2393580857</v>
+        <v>104121.1316950027</v>
       </c>
       <c r="AE6" t="n">
-        <v>103481.9983044862</v>
+        <v>142463.1258851798</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.0655067259243e-06</v>
+        <v>7.406470329104983e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.503472222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>93605.82162422888</v>
+        <v>128866.6450989897</v>
       </c>
     </row>
     <row r="7">
@@ -8741,28 +8741,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>75.50509930238186</v>
+        <v>103.9949916392988</v>
       </c>
       <c r="AB7" t="n">
-        <v>103.3094079153658</v>
+        <v>142.2905354960594</v>
       </c>
       <c r="AC7" t="n">
-        <v>93.44970301961392</v>
+        <v>128.7105264943748</v>
       </c>
       <c r="AD7" t="n">
-        <v>75505.09930238186</v>
+        <v>103994.9916392988</v>
       </c>
       <c r="AE7" t="n">
-        <v>103309.4079153658</v>
+        <v>142290.5354960595</v>
       </c>
       <c r="AF7" t="n">
-        <v>4.068522565736965e-06</v>
+        <v>7.411964534279311e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.503472222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>93449.70301961392</v>
+        <v>128710.5264943748</v>
       </c>
     </row>
   </sheetData>
@@ -9038,28 +9038,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>68.8476637804675</v>
+        <v>95.25561368166912</v>
       </c>
       <c r="AB2" t="n">
-        <v>94.20041092896057</v>
+        <v>130.332933020292</v>
       </c>
       <c r="AC2" t="n">
-        <v>85.21005592103079</v>
+        <v>117.8941408162903</v>
       </c>
       <c r="AD2" t="n">
-        <v>68847.6637804675</v>
+        <v>95255.61368166911</v>
       </c>
       <c r="AE2" t="n">
-        <v>94200.41092896057</v>
+        <v>130332.933020292</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.282657655867924e-06</v>
+        <v>8.392629131201542e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.668402777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>85210.05592103078</v>
+        <v>117894.1408162903</v>
       </c>
     </row>
     <row r="3">
@@ -9144,28 +9144,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>66.56214447555757</v>
+        <v>92.799502176167</v>
       </c>
       <c r="AB3" t="n">
-        <v>91.07326258598889</v>
+        <v>126.9723729024734</v>
       </c>
       <c r="AC3" t="n">
-        <v>82.38135822693104</v>
+        <v>114.8543078395395</v>
       </c>
       <c r="AD3" t="n">
-        <v>66562.14447555758</v>
+        <v>92799.50217616699</v>
       </c>
       <c r="AE3" t="n">
-        <v>91073.26258598888</v>
+        <v>126972.3729024734</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.522784453381042e-06</v>
+        <v>8.863200285360794e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.373263888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>82381.35822693104</v>
+        <v>114854.3078395395</v>
       </c>
     </row>
     <row r="4">
@@ -9250,28 +9250,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>66.71285989513852</v>
+        <v>92.95021759574793</v>
       </c>
       <c r="AB4" t="n">
-        <v>91.27947807215445</v>
+        <v>127.178588388639</v>
       </c>
       <c r="AC4" t="n">
-        <v>82.56789279652232</v>
+        <v>115.0408424091308</v>
       </c>
       <c r="AD4" t="n">
-        <v>66712.85989513852</v>
+        <v>92950.21759574793</v>
       </c>
       <c r="AE4" t="n">
-        <v>91279.47807215445</v>
+        <v>127178.588388639</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.520349884987656e-06</v>
+        <v>8.858429315728835e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.373263888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>82567.89279652231</v>
+        <v>115040.8424091308</v>
       </c>
     </row>
   </sheetData>
@@ -9547,28 +9547,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>126.0164297235713</v>
+        <v>166.7192556836351</v>
       </c>
       <c r="AB2" t="n">
-        <v>172.421238600228</v>
+        <v>228.1126407607078</v>
       </c>
       <c r="AC2" t="n">
-        <v>155.9655975829984</v>
+        <v>206.3418904846737</v>
       </c>
       <c r="AD2" t="n">
-        <v>126016.4297235713</v>
+        <v>166719.2556836351</v>
       </c>
       <c r="AE2" t="n">
-        <v>172421.238600228</v>
+        <v>228112.6407607078</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.667068878112571e-06</v>
+        <v>4.588641883338864e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.786458333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>155965.5975829985</v>
+        <v>206341.8904846737</v>
       </c>
     </row>
     <row r="3">
@@ -9653,28 +9653,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>104.7085101920993</v>
+        <v>135.3209705167187</v>
       </c>
       <c r="AB3" t="n">
-        <v>143.2668030582174</v>
+        <v>185.1521218007749</v>
       </c>
       <c r="AC3" t="n">
-        <v>129.5936204506008</v>
+        <v>167.481463158796</v>
       </c>
       <c r="AD3" t="n">
-        <v>104708.5101920993</v>
+        <v>135320.9705167187</v>
       </c>
       <c r="AE3" t="n">
-        <v>143266.8030582174</v>
+        <v>185152.1218007749</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.172389352735541e-06</v>
+        <v>5.458036263586198e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.545138888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>129593.6204506008</v>
+        <v>167481.463158796</v>
       </c>
     </row>
     <row r="4">
@@ -9759,28 +9759,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>101.9163154279974</v>
+        <v>132.3581835520247</v>
       </c>
       <c r="AB4" t="n">
-        <v>139.446398999036</v>
+        <v>181.0983059667466</v>
       </c>
       <c r="AC4" t="n">
-        <v>126.1378303928557</v>
+        <v>163.8145378183998</v>
       </c>
       <c r="AD4" t="n">
-        <v>101916.3154279974</v>
+        <v>132358.1835520247</v>
       </c>
       <c r="AE4" t="n">
-        <v>139446.398999036</v>
+        <v>181098.3059667466</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.336928993002035e-06</v>
+        <v>5.741123622518846e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.223958333333333</v>
       </c>
       <c r="AH4" t="n">
-        <v>126137.8303928557</v>
+        <v>163814.5378183998</v>
       </c>
     </row>
     <row r="5">
@@ -9865,28 +9865,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>100.5038029561418</v>
+        <v>130.945671080169</v>
       </c>
       <c r="AB5" t="n">
-        <v>137.5137371193918</v>
+        <v>179.1656440871024</v>
       </c>
       <c r="AC5" t="n">
-        <v>124.3896190504962</v>
+        <v>162.0663264760403</v>
       </c>
       <c r="AD5" t="n">
-        <v>100503.8029561418</v>
+        <v>130945.671080169</v>
       </c>
       <c r="AE5" t="n">
-        <v>137513.7371193918</v>
+        <v>179165.6440871024</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.413910380834687e-06</v>
+        <v>5.873568653595972e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.085069444444445</v>
       </c>
       <c r="AH5" t="n">
-        <v>124389.6190504962</v>
+        <v>162066.3264760403</v>
       </c>
     </row>
     <row r="6">
@@ -9971,28 +9971,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>89.37005787427601</v>
+        <v>129.9022021251966</v>
       </c>
       <c r="AB6" t="n">
-        <v>122.2800559122239</v>
+        <v>177.7379238283085</v>
       </c>
       <c r="AC6" t="n">
-        <v>110.6098189971297</v>
+        <v>160.7748658349273</v>
       </c>
       <c r="AD6" t="n">
-        <v>89370.05787427601</v>
+        <v>129902.2021251966</v>
       </c>
       <c r="AE6" t="n">
-        <v>122280.0559122239</v>
+        <v>177737.9238283085</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.462750608551951e-06</v>
+        <v>5.957597347543257e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.998263888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>110609.8189971297</v>
+        <v>160774.8658349272</v>
       </c>
     </row>
     <row r="7">
@@ -10077,28 +10077,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>88.2329077859176</v>
+        <v>118.7600272559654</v>
       </c>
       <c r="AB7" t="n">
-        <v>120.7241569938114</v>
+        <v>162.4927086141713</v>
       </c>
       <c r="AC7" t="n">
-        <v>109.2024128877722</v>
+        <v>146.9846325640285</v>
       </c>
       <c r="AD7" t="n">
-        <v>88232.9077859176</v>
+        <v>118760.0272559654</v>
       </c>
       <c r="AE7" t="n">
-        <v>120724.1569938114</v>
+        <v>162492.7086141713</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.524225642851634e-06</v>
+        <v>6.063363988773326e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.894097222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>109202.4128877722</v>
+        <v>146984.6325640286</v>
       </c>
     </row>
     <row r="8">
@@ -10183,28 +10183,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>87.53410197052651</v>
+        <v>118.0612214405743</v>
       </c>
       <c r="AB8" t="n">
-        <v>119.7680200480571</v>
+        <v>161.536571668417</v>
       </c>
       <c r="AC8" t="n">
-        <v>108.3375283101736</v>
+        <v>146.11974798643</v>
       </c>
       <c r="AD8" t="n">
-        <v>87534.10197052651</v>
+        <v>118061.2214405743</v>
       </c>
       <c r="AE8" t="n">
-        <v>119768.020048057</v>
+        <v>161536.571668417</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.550667804354612e-06</v>
+        <v>6.108857230719309e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.850694444444445</v>
       </c>
       <c r="AH8" t="n">
-        <v>108337.5283101736</v>
+        <v>146119.74798643</v>
       </c>
     </row>
     <row r="9">
@@ -10289,28 +10289,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>87.19399403629373</v>
+        <v>117.7211135063416</v>
       </c>
       <c r="AB9" t="n">
-        <v>119.3026693679369</v>
+        <v>161.0712209882968</v>
       </c>
       <c r="AC9" t="n">
-        <v>107.9165900458402</v>
+        <v>145.6988097220966</v>
       </c>
       <c r="AD9" t="n">
-        <v>87193.99403629373</v>
+        <v>117721.1135063416</v>
       </c>
       <c r="AE9" t="n">
-        <v>119302.6693679369</v>
+        <v>161071.2209882968</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.550524227007085e-06</v>
+        <v>6.108610208591096e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.850694444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>107916.5900458402</v>
+        <v>145698.8097220966</v>
       </c>
     </row>
     <row r="10">
@@ -10395,28 +10395,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>86.68886412708393</v>
+        <v>117.2159835971318</v>
       </c>
       <c r="AB10" t="n">
-        <v>118.6115283413976</v>
+        <v>160.3800799617575</v>
       </c>
       <c r="AC10" t="n">
-        <v>107.2914105488511</v>
+        <v>145.0736302251075</v>
       </c>
       <c r="AD10" t="n">
-        <v>86688.86412708393</v>
+        <v>117215.9835971318</v>
       </c>
       <c r="AE10" t="n">
-        <v>118611.5283413976</v>
+        <v>160380.0799617575</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.575865628845686e-06</v>
+        <v>6.152209614220775e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.807291666666667</v>
       </c>
       <c r="AH10" t="n">
-        <v>107291.4105488511</v>
+        <v>145073.6302251075</v>
       </c>
     </row>
     <row r="11">
@@ -10501,28 +10501,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>85.94881932752483</v>
+        <v>116.4759387975727</v>
       </c>
       <c r="AB11" t="n">
-        <v>117.598966398169</v>
+        <v>159.3675180185289</v>
       </c>
       <c r="AC11" t="n">
-        <v>106.3754860963443</v>
+        <v>144.1577057726007</v>
       </c>
       <c r="AD11" t="n">
-        <v>85948.81932752483</v>
+        <v>116475.9387975727</v>
       </c>
       <c r="AE11" t="n">
-        <v>117598.966398169</v>
+        <v>159367.5180185289</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.57825858463781e-06</v>
+        <v>6.156326649690999e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.807291666666667</v>
       </c>
       <c r="AH11" t="n">
-        <v>106375.4860963443</v>
+        <v>144157.7057726007</v>
       </c>
     </row>
     <row r="12">
@@ -10607,28 +10607,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>85.42463162106463</v>
+        <v>115.9517510911125</v>
       </c>
       <c r="AB12" t="n">
-        <v>116.881749652661</v>
+        <v>158.6503012730209</v>
       </c>
       <c r="AC12" t="n">
-        <v>105.7267195104073</v>
+        <v>143.5089391866638</v>
       </c>
       <c r="AD12" t="n">
-        <v>85424.63162106463</v>
+        <v>115951.7510911125</v>
       </c>
       <c r="AE12" t="n">
-        <v>116881.749652661</v>
+        <v>158650.3012730209</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.611401022358737e-06</v>
+        <v>6.21334759095361e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.755208333333333</v>
       </c>
       <c r="AH12" t="n">
-        <v>105726.7195104073</v>
+        <v>143508.9391866637</v>
       </c>
     </row>
     <row r="13">
@@ -10713,28 +10713,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>85.48081215280216</v>
+        <v>116.00793162285</v>
       </c>
       <c r="AB13" t="n">
-        <v>116.9586183346944</v>
+        <v>158.7271699550543</v>
       </c>
       <c r="AC13" t="n">
-        <v>105.7962519533133</v>
+        <v>143.5784716295697</v>
       </c>
       <c r="AD13" t="n">
-        <v>85480.81215280216</v>
+        <v>116007.93162285</v>
       </c>
       <c r="AE13" t="n">
-        <v>116958.6183346944</v>
+        <v>158727.1699550543</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.605657928457637e-06</v>
+        <v>6.203466705825072e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.763888888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>105796.2519533133</v>
+        <v>143578.4716295697</v>
       </c>
     </row>
   </sheetData>
@@ -11010,28 +11010,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>65.29397703745748</v>
+        <v>91.14640348622096</v>
       </c>
       <c r="AB2" t="n">
-        <v>89.33809994958243</v>
+        <v>124.7105303453233</v>
       </c>
       <c r="AC2" t="n">
-        <v>80.8117970772266</v>
+        <v>112.8083323615271</v>
       </c>
       <c r="AD2" t="n">
-        <v>65293.97703745749</v>
+        <v>91146.40348622097</v>
       </c>
       <c r="AE2" t="n">
-        <v>89338.09994958242</v>
+        <v>124710.5303453233</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.511463794939524e-06</v>
+        <v>9.043952710208392e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.512152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>80811.7970772266</v>
+        <v>112808.3323615271</v>
       </c>
     </row>
     <row r="3">
@@ -11116,28 +11116,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>64.37500374520783</v>
+        <v>90.05683799337912</v>
       </c>
       <c r="AB3" t="n">
-        <v>88.08072014888674</v>
+        <v>123.2197387697808</v>
       </c>
       <c r="AC3" t="n">
-        <v>79.6744198399653</v>
+        <v>111.4598198416148</v>
       </c>
       <c r="AD3" t="n">
-        <v>64375.00374520784</v>
+        <v>90056.83799337911</v>
       </c>
       <c r="AE3" t="n">
-        <v>88080.72014888674</v>
+        <v>123219.7387697808</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.632286886638829e-06</v>
+        <v>9.286161974717036e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.364583333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>79674.4198399653</v>
+        <v>111459.8198416148</v>
       </c>
     </row>
   </sheetData>
@@ -11413,28 +11413,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>112.8426100565614</v>
+        <v>142.2854547980569</v>
       </c>
       <c r="AB2" t="n">
-        <v>154.3962373439285</v>
+        <v>194.6812364458588</v>
       </c>
       <c r="AC2" t="n">
-        <v>139.6608771483463</v>
+        <v>176.1011324763526</v>
       </c>
       <c r="AD2" t="n">
-        <v>112842.6100565614</v>
+        <v>142285.4547980569</v>
       </c>
       <c r="AE2" t="n">
-        <v>154396.2373439285</v>
+        <v>194681.2364458588</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.074141852272558e-06</v>
+        <v>5.44453365032551e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.022569444444445</v>
       </c>
       <c r="AH2" t="n">
-        <v>139660.8771483463</v>
+        <v>176101.1324763526</v>
       </c>
     </row>
     <row r="3">
@@ -11519,28 +11519,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>95.80561319385674</v>
+        <v>125.1631170807806</v>
       </c>
       <c r="AB3" t="n">
-        <v>131.0854666171327</v>
+        <v>171.2536985968653</v>
       </c>
       <c r="AC3" t="n">
-        <v>118.5748536628363</v>
+        <v>154.9094859589037</v>
       </c>
       <c r="AD3" t="n">
-        <v>95805.61319385674</v>
+        <v>125163.1170807806</v>
       </c>
       <c r="AE3" t="n">
-        <v>131085.4666171327</v>
+        <v>171253.6985968653</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.518867060064479e-06</v>
+        <v>6.232175039476487e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.137152777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>118574.8536628363</v>
+        <v>154909.4859589037</v>
       </c>
     </row>
     <row r="4">
@@ -11625,28 +11625,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>83.9247732047735</v>
+        <v>113.367528437718</v>
       </c>
       <c r="AB4" t="n">
-        <v>114.8295771984092</v>
+        <v>155.1144538307911</v>
       </c>
       <c r="AC4" t="n">
-        <v>103.8704035149465</v>
+        <v>140.3105480617262</v>
       </c>
       <c r="AD4" t="n">
-        <v>83924.7732047735</v>
+        <v>113367.5284377179</v>
       </c>
       <c r="AE4" t="n">
-        <v>114829.5771984092</v>
+        <v>155114.4538307911</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.659628708402289e-06</v>
+        <v>6.481474378244457e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.902777777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>103870.4035149465</v>
+        <v>140310.5480617262</v>
       </c>
     </row>
     <row r="5">
@@ -11731,28 +11731,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>82.74618513986225</v>
+        <v>112.1889403728067</v>
       </c>
       <c r="AB5" t="n">
-        <v>113.2169810123627</v>
+        <v>153.5018576447446</v>
       </c>
       <c r="AC5" t="n">
-        <v>102.4117112456028</v>
+        <v>138.8518557923825</v>
       </c>
       <c r="AD5" t="n">
-        <v>82746.18513986225</v>
+        <v>112188.9403728067</v>
       </c>
       <c r="AE5" t="n">
-        <v>113216.9810123627</v>
+        <v>153501.8576447446</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.735955455857291e-06</v>
+        <v>6.616654719591245e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.78125</v>
       </c>
       <c r="AH5" t="n">
-        <v>102411.7112456028</v>
+        <v>138851.8557923824</v>
       </c>
     </row>
     <row r="6">
@@ -11837,28 +11837,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>81.60925264391066</v>
+        <v>111.0520078768551</v>
       </c>
       <c r="AB6" t="n">
-        <v>111.6613798134807</v>
+        <v>151.9462564458626</v>
       </c>
       <c r="AC6" t="n">
-        <v>101.0045744418416</v>
+        <v>137.4447189886213</v>
       </c>
       <c r="AD6" t="n">
-        <v>81609.25264391066</v>
+        <v>111052.0078768551</v>
       </c>
       <c r="AE6" t="n">
-        <v>111661.3798134807</v>
+        <v>151946.2564458626</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.795812742160008e-06</v>
+        <v>6.722666421442737e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.685763888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>101004.5744418416</v>
+        <v>137444.7189886213</v>
       </c>
     </row>
     <row r="7">
@@ -11943,28 +11943,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>80.88968334469729</v>
+        <v>110.3324385776418</v>
       </c>
       <c r="AB7" t="n">
-        <v>110.6768333531405</v>
+        <v>150.9617099855224</v>
       </c>
       <c r="AC7" t="n">
-        <v>100.1139917138563</v>
+        <v>136.554136260636</v>
       </c>
       <c r="AD7" t="n">
-        <v>80889.68334469729</v>
+        <v>110332.4385776417</v>
       </c>
       <c r="AE7" t="n">
-        <v>110676.8333531405</v>
+        <v>150961.7099855224</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.826462857174532e-06</v>
+        <v>6.776950052648487e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.642361111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>100113.9917138563</v>
+        <v>136554.136260636</v>
       </c>
     </row>
     <row r="8">
@@ -12049,28 +12049,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>80.23337846546154</v>
+        <v>109.676133698406</v>
       </c>
       <c r="AB8" t="n">
-        <v>109.7788480632428</v>
+        <v>150.0637246956247</v>
       </c>
       <c r="AC8" t="n">
-        <v>99.30170887969589</v>
+        <v>135.7418534264756</v>
       </c>
       <c r="AD8" t="n">
-        <v>80233.37846546154</v>
+        <v>109676.133698406</v>
       </c>
       <c r="AE8" t="n">
-        <v>109778.8480632428</v>
+        <v>150063.7246956247</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.848330918130512e-06</v>
+        <v>6.815680013549345e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.607638888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>99301.7088796959</v>
+        <v>135741.8534264756</v>
       </c>
     </row>
     <row r="9">
@@ -12155,28 +12155,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>79.96162891452435</v>
+        <v>109.4043841474688</v>
       </c>
       <c r="AB9" t="n">
-        <v>109.4070283389066</v>
+        <v>149.6919049712885</v>
       </c>
       <c r="AC9" t="n">
-        <v>98.96537510799803</v>
+        <v>135.4055196547777</v>
       </c>
       <c r="AD9" t="n">
-        <v>79961.62891452435</v>
+        <v>109404.3841474688</v>
       </c>
       <c r="AE9" t="n">
-        <v>109407.0283389066</v>
+        <v>149691.9049712885</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.845668935738829e-06</v>
+        <v>6.810965444930013e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.616319444444445</v>
       </c>
       <c r="AH9" t="n">
-        <v>98965.37510799803</v>
+        <v>135405.5196547777</v>
       </c>
     </row>
   </sheetData>
@@ -12452,28 +12452,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>119.1570916151729</v>
+        <v>158.9952661898827</v>
       </c>
       <c r="AB2" t="n">
-        <v>163.0359895876819</v>
+        <v>217.5443375769941</v>
       </c>
       <c r="AC2" t="n">
-        <v>147.4760635639271</v>
+        <v>196.7822113241036</v>
       </c>
       <c r="AD2" t="n">
-        <v>119157.0916151729</v>
+        <v>158995.2661898827</v>
       </c>
       <c r="AE2" t="n">
-        <v>163035.989587682</v>
+        <v>217544.3375769941</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.864938501700761e-06</v>
+        <v>4.996202582815624e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.387152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>147476.0635639271</v>
+        <v>196782.2113241036</v>
       </c>
     </row>
     <row r="3">
@@ -12558,28 +12558,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>100.5616032988747</v>
+        <v>130.4829270343307</v>
       </c>
       <c r="AB3" t="n">
-        <v>137.5928220982901</v>
+        <v>178.5324972687602</v>
       </c>
       <c r="AC3" t="n">
-        <v>124.4611562700049</v>
+        <v>161.4936063014133</v>
       </c>
       <c r="AD3" t="n">
-        <v>100561.6032988747</v>
+        <v>130482.9270343307</v>
       </c>
       <c r="AE3" t="n">
-        <v>137592.8220982901</v>
+        <v>178532.4972687602</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.320571269574962e-06</v>
+        <v>5.790786344497461e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.371527777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>124461.1562700049</v>
+        <v>161493.6063014133</v>
       </c>
     </row>
     <row r="4">
@@ -12664,28 +12664,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>97.86230782488154</v>
+        <v>127.7836315603375</v>
       </c>
       <c r="AB4" t="n">
-        <v>133.8995269462628</v>
+        <v>174.8392021167329</v>
       </c>
       <c r="AC4" t="n">
-        <v>121.1203440237136</v>
+        <v>158.152794055122</v>
       </c>
       <c r="AD4" t="n">
-        <v>97862.30782488154</v>
+        <v>127783.6315603375</v>
       </c>
       <c r="AE4" t="n">
-        <v>133899.5269462628</v>
+        <v>174839.2021167329</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.493907702934338e-06</v>
+        <v>6.093069948676765e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.059027777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>121120.3440237136</v>
+        <v>158152.794055122</v>
       </c>
     </row>
     <row r="5">
@@ -12770,28 +12770,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>86.43799262895456</v>
+        <v>116.4445677104311</v>
       </c>
       <c r="AB5" t="n">
-        <v>118.2682748899878</v>
+        <v>159.3245947131071</v>
       </c>
       <c r="AC5" t="n">
-        <v>106.9809167250844</v>
+        <v>144.1188790072051</v>
       </c>
       <c r="AD5" t="n">
-        <v>86437.99262895455</v>
+        <v>116444.5677104311</v>
       </c>
       <c r="AE5" t="n">
-        <v>118268.2748899878</v>
+        <v>159324.5947131071</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.572275953989096e-06</v>
+        <v>6.229737335462934e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.920138888888889</v>
       </c>
       <c r="AH5" t="n">
-        <v>106980.9167250844</v>
+        <v>144118.8790072051</v>
       </c>
     </row>
     <row r="6">
@@ -12876,28 +12876,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>85.41294328733994</v>
+        <v>115.4195183688165</v>
       </c>
       <c r="AB6" t="n">
-        <v>116.865757158806</v>
+        <v>157.9220769819253</v>
       </c>
       <c r="AC6" t="n">
-        <v>105.7122533177202</v>
+        <v>142.8502155998409</v>
       </c>
       <c r="AD6" t="n">
-        <v>85412.94328733995</v>
+        <v>115419.5183688165</v>
       </c>
       <c r="AE6" t="n">
-        <v>116865.757158806</v>
+        <v>157922.0769819253</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.624513329419998e-06</v>
+        <v>6.320834756888367e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.842013888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>105712.2533177202</v>
+        <v>142850.2155998409</v>
       </c>
     </row>
     <row r="7">
@@ -12982,28 +12982,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>84.84661325528216</v>
+        <v>114.8531883367587</v>
       </c>
       <c r="AB7" t="n">
-        <v>116.0908794242273</v>
+        <v>157.1471992473466</v>
       </c>
       <c r="AC7" t="n">
-        <v>105.0113288265817</v>
+        <v>142.1492911087023</v>
       </c>
       <c r="AD7" t="n">
-        <v>84846.61325528217</v>
+        <v>114853.1883367587</v>
       </c>
       <c r="AE7" t="n">
-        <v>116090.8794242273</v>
+        <v>157147.1992473466</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.648474757347472e-06</v>
+        <v>6.362621394901059e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.798611111111111</v>
       </c>
       <c r="AH7" t="n">
-        <v>105011.3288265817</v>
+        <v>142149.2911087023</v>
       </c>
     </row>
     <row r="8">
@@ -13088,28 +13088,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>84.05203757899356</v>
+        <v>114.0586126604701</v>
       </c>
       <c r="AB8" t="n">
-        <v>115.0037059297249</v>
+        <v>156.0600257528442</v>
       </c>
       <c r="AC8" t="n">
-        <v>104.0279136445367</v>
+        <v>141.1658759266573</v>
       </c>
       <c r="AD8" t="n">
-        <v>84052.03757899356</v>
+        <v>114058.6126604701</v>
       </c>
       <c r="AE8" t="n">
-        <v>115003.7059297249</v>
+        <v>156060.0257528442</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.680455829006522e-06</v>
+        <v>6.41839359131271e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.746527777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>104027.9136445367</v>
+        <v>141165.8759266573</v>
       </c>
     </row>
     <row r="9">
@@ -13194,28 +13194,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>83.45666376944966</v>
+        <v>113.4632388509262</v>
       </c>
       <c r="AB9" t="n">
-        <v>114.1890892174687</v>
+        <v>155.245409040588</v>
       </c>
       <c r="AC9" t="n">
-        <v>103.2910428079762</v>
+        <v>140.4290050900968</v>
       </c>
       <c r="AD9" t="n">
-        <v>83456.66376944966</v>
+        <v>113463.2388509262</v>
       </c>
       <c r="AE9" t="n">
-        <v>114189.0892174687</v>
+        <v>155245.409040588</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.70843926670819e-06</v>
+        <v>6.467194263172904e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.703125</v>
       </c>
       <c r="AH9" t="n">
-        <v>103291.0428079762</v>
+        <v>140429.0050900968</v>
       </c>
     </row>
     <row r="10">
@@ -13300,28 +13300,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>82.75241221032749</v>
+        <v>112.758987291804</v>
       </c>
       <c r="AB10" t="n">
-        <v>113.2255011648922</v>
+        <v>154.2818209880114</v>
       </c>
       <c r="AC10" t="n">
-        <v>102.4194182467329</v>
+        <v>139.5573805288536</v>
       </c>
       <c r="AD10" t="n">
-        <v>82752.41221032749</v>
+        <v>112758.987291804</v>
       </c>
       <c r="AE10" t="n">
-        <v>113225.5011648921</v>
+        <v>154281.8209880115</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.706732959531259e-06</v>
+        <v>6.464218612449721e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.711805555555555</v>
       </c>
       <c r="AH10" t="n">
-        <v>102419.418246733</v>
+        <v>139557.3805288536</v>
       </c>
     </row>
     <row r="11">
@@ -13406,28 +13406,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>82.27147120350133</v>
+        <v>112.2780462849779</v>
       </c>
       <c r="AB11" t="n">
-        <v>112.5674564617332</v>
+        <v>153.6237762848525</v>
       </c>
       <c r="AC11" t="n">
-        <v>101.8241764064717</v>
+        <v>138.9621386885924</v>
       </c>
       <c r="AD11" t="n">
-        <v>82271.47120350134</v>
+        <v>112278.0462849779</v>
       </c>
       <c r="AE11" t="n">
-        <v>112567.4564617332</v>
+        <v>153623.7762848525</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.738153387403602e-06</v>
+        <v>6.519013095052325e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.659722222222222</v>
       </c>
       <c r="AH11" t="n">
-        <v>101824.1764064717</v>
+        <v>138962.1386885924</v>
       </c>
     </row>
   </sheetData>
@@ -13703,28 +13703,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>143.5925886844312</v>
+        <v>184.8570386338075</v>
       </c>
       <c r="AB2" t="n">
-        <v>196.4697146958723</v>
+        <v>252.9295555756309</v>
       </c>
       <c r="AC2" t="n">
-        <v>177.7189208723304</v>
+        <v>228.790313780427</v>
       </c>
       <c r="AD2" t="n">
-        <v>143592.5886844312</v>
+        <v>184857.0386338075</v>
       </c>
       <c r="AE2" t="n">
-        <v>196469.7146958723</v>
+        <v>252929.5555756309</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.488143764056039e-06</v>
+        <v>4.22967949373674e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.211805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>177718.9208723304</v>
+        <v>228790.313780427</v>
       </c>
     </row>
     <row r="3">
@@ -13809,28 +13809,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>109.8062177574355</v>
+        <v>151.0705781982607</v>
       </c>
       <c r="AB3" t="n">
-        <v>150.2417114440924</v>
+        <v>206.7014298543025</v>
       </c>
       <c r="AC3" t="n">
-        <v>135.9028533694755</v>
+        <v>186.9741354963457</v>
       </c>
       <c r="AD3" t="n">
-        <v>109806.2177574355</v>
+        <v>151070.5781982607</v>
       </c>
       <c r="AE3" t="n">
-        <v>150241.7114440924</v>
+        <v>206701.4298543026</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.99646839169836e-06</v>
+        <v>5.093797670813128e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.814236111111111</v>
       </c>
       <c r="AH3" t="n">
-        <v>135902.8533694755</v>
+        <v>186974.1354963457</v>
       </c>
     </row>
     <row r="4">
@@ -13915,28 +13915,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>105.9369814264518</v>
+        <v>136.8640060519789</v>
       </c>
       <c r="AB4" t="n">
-        <v>144.9476515973835</v>
+        <v>187.2633710940401</v>
       </c>
       <c r="AC4" t="n">
-        <v>131.1140511642752</v>
+        <v>169.3912177826697</v>
       </c>
       <c r="AD4" t="n">
-        <v>105936.9814264518</v>
+        <v>136864.0060519789</v>
       </c>
       <c r="AE4" t="n">
-        <v>144947.6515973835</v>
+        <v>187263.3710940401</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.193727992631163e-06</v>
+        <v>5.429125918746868e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.397569444444445</v>
       </c>
       <c r="AH4" t="n">
-        <v>131114.0511642752</v>
+        <v>169391.2177826697</v>
       </c>
     </row>
     <row r="5">
@@ -14021,28 +14021,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>103.9575601585393</v>
+        <v>134.8845847840664</v>
       </c>
       <c r="AB5" t="n">
-        <v>142.2393200927239</v>
+        <v>184.5550395893805</v>
       </c>
       <c r="AC5" t="n">
-        <v>128.6641990172523</v>
+        <v>166.9413656356467</v>
       </c>
       <c r="AD5" t="n">
-        <v>103957.5601585393</v>
+        <v>134884.5847840664</v>
       </c>
       <c r="AE5" t="n">
-        <v>142239.3200927239</v>
+        <v>184555.0395893805</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.299369167271942e-06</v>
+        <v>5.608708914121688e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.189236111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>128664.1990172522</v>
+        <v>166941.3656356467</v>
       </c>
     </row>
     <row r="6">
@@ -14127,28 +14127,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>103.1606951541652</v>
+        <v>134.0877197796922</v>
       </c>
       <c r="AB6" t="n">
-        <v>141.1490142385369</v>
+        <v>183.4647337351934</v>
       </c>
       <c r="AC6" t="n">
-        <v>127.6779504235346</v>
+        <v>165.9551170419291</v>
       </c>
       <c r="AD6" t="n">
-        <v>103160.6951541652</v>
+        <v>134087.7197796922</v>
       </c>
       <c r="AE6" t="n">
-        <v>141149.0142385369</v>
+        <v>183464.7337351934</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.344166672063934e-06</v>
+        <v>5.684861703251679e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.111111111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>127677.9504235346</v>
+        <v>165955.1170419291</v>
       </c>
     </row>
     <row r="7">
@@ -14233,28 +14233,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>102.3363159044911</v>
+        <v>133.2633405300182</v>
       </c>
       <c r="AB7" t="n">
-        <v>140.0210621800877</v>
+        <v>182.3367816767442</v>
       </c>
       <c r="AC7" t="n">
-        <v>126.6576485264528</v>
+        <v>164.9348151448473</v>
       </c>
       <c r="AD7" t="n">
-        <v>102336.3159044911</v>
+        <v>133263.3405300181</v>
       </c>
       <c r="AE7" t="n">
-        <v>140021.0621800876</v>
+        <v>182336.7816767442</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.376564867493856e-06</v>
+        <v>5.739936488247476e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>7</v>
+        <v>6.050347222222222</v>
       </c>
       <c r="AH7" t="n">
-        <v>126657.6485264528</v>
+        <v>164934.8151448473</v>
       </c>
     </row>
     <row r="8">
@@ -14339,28 +14339,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>91.32791453842481</v>
+        <v>132.5069341246784</v>
       </c>
       <c r="AB8" t="n">
-        <v>124.9588817746509</v>
+        <v>181.3018330626635</v>
       </c>
       <c r="AC8" t="n">
-        <v>113.0329814790032</v>
+        <v>163.9986405739346</v>
       </c>
       <c r="AD8" t="n">
-        <v>91327.91453842481</v>
+        <v>132506.9341246784</v>
       </c>
       <c r="AE8" t="n">
-        <v>124958.8817746509</v>
+        <v>181301.8330626635</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.402610475584578e-06</v>
+        <v>5.784212295793116e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.998263888888889</v>
       </c>
       <c r="AH8" t="n">
-        <v>113032.9814790032</v>
+        <v>163998.6405739346</v>
       </c>
     </row>
     <row r="9">
@@ -14445,28 +14445,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>90.54798901589639</v>
+        <v>131.72700860215</v>
       </c>
       <c r="AB9" t="n">
-        <v>123.8917532668424</v>
+        <v>180.234704554855</v>
       </c>
       <c r="AC9" t="n">
-        <v>112.0676982182554</v>
+        <v>163.0333573131867</v>
       </c>
       <c r="AD9" t="n">
-        <v>90547.9890158964</v>
+        <v>131727.00860215</v>
       </c>
       <c r="AE9" t="n">
-        <v>123891.7532668424</v>
+        <v>180234.704554855</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.436702694304954e-06</v>
+        <v>5.842166808108955e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.946180555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>112067.6982182554</v>
+        <v>163033.3573131867</v>
       </c>
     </row>
     <row r="10">
@@ -14551,28 +14551,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>89.92131131907983</v>
+        <v>120.9335872906275</v>
       </c>
       <c r="AB10" t="n">
-        <v>123.0343051949897</v>
+        <v>165.4666693442956</v>
       </c>
       <c r="AC10" t="n">
-        <v>111.2920837869441</v>
+        <v>149.6747626560508</v>
       </c>
       <c r="AD10" t="n">
-        <v>89921.31131907983</v>
+        <v>120933.5872906275</v>
       </c>
       <c r="AE10" t="n">
-        <v>123034.3051949897</v>
+        <v>165466.6693442956</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.459030862397181e-06</v>
+        <v>5.880123214035615e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.902777777777778</v>
       </c>
       <c r="AH10" t="n">
-        <v>111292.0837869441</v>
+        <v>149674.7626560508</v>
       </c>
     </row>
     <row r="11">
@@ -14657,28 +14657,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>89.69548105708229</v>
+        <v>120.7077570286299</v>
       </c>
       <c r="AB11" t="n">
-        <v>122.7253142675968</v>
+        <v>165.1576784169027</v>
       </c>
       <c r="AC11" t="n">
-        <v>111.0125825199899</v>
+        <v>149.3952613890966</v>
       </c>
       <c r="AD11" t="n">
-        <v>89695.48105708229</v>
+        <v>120707.7570286299</v>
       </c>
       <c r="AE11" t="n">
-        <v>122725.3142675968</v>
+        <v>165157.6784169027</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.460583717080096e-06</v>
+        <v>5.882762964078986e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.902777777777778</v>
       </c>
       <c r="AH11" t="n">
-        <v>111012.5825199899</v>
+        <v>149395.2613890966</v>
       </c>
     </row>
     <row r="12">
@@ -14763,28 +14763,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>89.10758998152625</v>
+        <v>120.1198659530739</v>
       </c>
       <c r="AB12" t="n">
-        <v>121.9209357620977</v>
+        <v>164.3532999114035</v>
       </c>
       <c r="AC12" t="n">
-        <v>110.2849727701031</v>
+        <v>148.6676516392098</v>
       </c>
       <c r="AD12" t="n">
-        <v>89107.58998152625</v>
+        <v>120119.8659530739</v>
       </c>
       <c r="AE12" t="n">
-        <v>121920.9357620977</v>
+        <v>164353.2999114035</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.459454368219794e-06</v>
+        <v>5.880843145865624e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.902777777777778</v>
       </c>
       <c r="AH12" t="n">
-        <v>110284.972770103</v>
+        <v>148667.6516392098</v>
       </c>
     </row>
     <row r="13">
@@ -14869,28 +14869,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>88.57441146274022</v>
+        <v>119.5866874342879</v>
       </c>
       <c r="AB13" t="n">
-        <v>121.1914173905188</v>
+        <v>163.6237815398247</v>
       </c>
       <c r="AC13" t="n">
-        <v>109.625078608022</v>
+        <v>148.0077574771287</v>
       </c>
       <c r="AD13" t="n">
-        <v>88574.41146274022</v>
+        <v>119586.6874342879</v>
       </c>
       <c r="AE13" t="n">
-        <v>121191.4173905188</v>
+        <v>163623.7815398247</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.494558295294191e-06</v>
+        <v>5.940517495330933e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.842013888888889</v>
       </c>
       <c r="AH13" t="n">
-        <v>109625.078608022</v>
+        <v>148007.7574771287</v>
       </c>
     </row>
     <row r="14">
@@ -14975,28 +14975,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>88.19603176395358</v>
+        <v>119.2083077355012</v>
       </c>
       <c r="AB14" t="n">
-        <v>120.673701593705</v>
+        <v>163.1060657430109</v>
       </c>
       <c r="AC14" t="n">
-        <v>109.1567728802373</v>
+        <v>147.539451749344</v>
       </c>
       <c r="AD14" t="n">
-        <v>88196.03176395358</v>
+        <v>119208.3077355012</v>
       </c>
       <c r="AE14" t="n">
-        <v>120673.701593705</v>
+        <v>163106.0657430109</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.495287666433136e-06</v>
+        <v>5.941757377927062e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.842013888888889</v>
       </c>
       <c r="AH14" t="n">
-        <v>109156.7728802373</v>
+        <v>147539.451749344</v>
       </c>
     </row>
     <row r="15">
@@ -15081,28 +15081,28 @@
         <v>10</v>
       </c>
       <c r="AA15" t="n">
-        <v>88.0549623247061</v>
+        <v>119.0672382962537</v>
       </c>
       <c r="AB15" t="n">
-        <v>120.4806841633823</v>
+        <v>162.9130483126881</v>
       </c>
       <c r="AC15" t="n">
-        <v>108.9821767625628</v>
+        <v>147.3648556316695</v>
       </c>
       <c r="AD15" t="n">
-        <v>88054.9623247061</v>
+        <v>119067.2382962537</v>
       </c>
       <c r="AE15" t="n">
-        <v>120480.6841633823</v>
+        <v>162913.0483126881</v>
       </c>
       <c r="AF15" t="n">
-        <v>3.492840743902481e-06</v>
+        <v>5.937597771798113e-06</v>
       </c>
       <c r="AG15" t="n">
-        <v>6</v>
+        <v>5.850694444444445</v>
       </c>
       <c r="AH15" t="n">
-        <v>108982.1767625628</v>
+        <v>147364.8556316695</v>
       </c>
     </row>
   </sheetData>
@@ -15378,28 +15378,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>96.77032773378289</v>
+        <v>135.1175723238267</v>
       </c>
       <c r="AB2" t="n">
-        <v>132.4054316108607</v>
+        <v>184.8738234199652</v>
       </c>
       <c r="AC2" t="n">
-        <v>119.7688430501459</v>
+        <v>167.2297251848565</v>
       </c>
       <c r="AD2" t="n">
-        <v>96770.32773378289</v>
+        <v>135117.5723238267</v>
       </c>
       <c r="AE2" t="n">
-        <v>132405.4316108607</v>
+        <v>184873.8234199652</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.314289241180893e-06</v>
+        <v>5.976447795064503e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.666666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>119768.8430501459</v>
+        <v>167229.7251848565</v>
       </c>
     </row>
     <row r="3">
@@ -15484,28 +15484,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>81.48028744535064</v>
+        <v>110.3047265288122</v>
       </c>
       <c r="AB3" t="n">
-        <v>111.484923939268</v>
+        <v>150.9237931377445</v>
       </c>
       <c r="AC3" t="n">
-        <v>100.8449592686063</v>
+        <v>136.5198381435934</v>
       </c>
       <c r="AD3" t="n">
-        <v>81480.28744535064</v>
+        <v>110304.7265288122</v>
       </c>
       <c r="AE3" t="n">
-        <v>111484.923939268</v>
+        <v>150923.7931377445</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.726920898903794e-06</v>
+        <v>6.720520319070637e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.928819444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>100844.9592686063</v>
+        <v>136519.8381435934</v>
       </c>
     </row>
     <row r="4">
@@ -15590,28 +15590,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>79.80900375442414</v>
+        <v>108.6334428378857</v>
       </c>
       <c r="AB4" t="n">
-        <v>109.1981998615108</v>
+        <v>148.6370690599873</v>
       </c>
       <c r="AC4" t="n">
-        <v>98.77647692739214</v>
+        <v>134.4513558023792</v>
       </c>
       <c r="AD4" t="n">
-        <v>79809.00375442413</v>
+        <v>108633.4428378857</v>
       </c>
       <c r="AE4" t="n">
-        <v>109198.1998615108</v>
+        <v>148637.0690599873</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.847241042390078e-06</v>
+        <v>6.93748601032824e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.746527777777778</v>
       </c>
       <c r="AH4" t="n">
-        <v>98776.47692739214</v>
+        <v>134451.3558023792</v>
       </c>
     </row>
     <row r="5">
@@ -15696,28 +15696,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>78.48529307797095</v>
+        <v>107.3097321614325</v>
       </c>
       <c r="AB5" t="n">
-        <v>107.3870405159949</v>
+        <v>146.8259097144715</v>
       </c>
       <c r="AC5" t="n">
-        <v>97.13817208783364</v>
+        <v>132.8130509628207</v>
       </c>
       <c r="AD5" t="n">
-        <v>78485.29307797096</v>
+        <v>107309.7321614325</v>
       </c>
       <c r="AE5" t="n">
-        <v>107387.0405159949</v>
+        <v>146825.9097144715</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.931085881113121e-06</v>
+        <v>7.088678095583697e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.625</v>
       </c>
       <c r="AH5" t="n">
-        <v>97138.17208783363</v>
+        <v>132813.0509628207</v>
       </c>
     </row>
     <row r="6">
@@ -15802,28 +15802,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>77.43309902603097</v>
+        <v>106.2575381094926</v>
       </c>
       <c r="AB6" t="n">
-        <v>105.9473821946059</v>
+        <v>145.3862513930825</v>
       </c>
       <c r="AC6" t="n">
-        <v>95.83591273606439</v>
+        <v>131.5107916110515</v>
       </c>
       <c r="AD6" t="n">
-        <v>77433.09902603098</v>
+        <v>106257.5381094926</v>
       </c>
       <c r="AE6" t="n">
-        <v>105947.3821946059</v>
+        <v>145386.2513930825</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.985455211869775e-06</v>
+        <v>7.186718864893246e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.546875</v>
       </c>
       <c r="AH6" t="n">
-        <v>95835.91273606439</v>
+        <v>131510.7916110515</v>
       </c>
     </row>
     <row r="7">
@@ -15908,28 +15908,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>76.93647227677063</v>
+        <v>105.7609113602322</v>
       </c>
       <c r="AB7" t="n">
-        <v>105.2678755666424</v>
+        <v>144.7067447651189</v>
       </c>
       <c r="AC7" t="n">
-        <v>95.22125726697993</v>
+        <v>130.896136141967</v>
       </c>
       <c r="AD7" t="n">
-        <v>76936.47227677063</v>
+        <v>105760.9113602322</v>
       </c>
       <c r="AE7" t="n">
-        <v>105267.8755666424</v>
+        <v>144706.7447651189</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.98130624140473e-06</v>
+        <v>7.179237289332638e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.546875</v>
       </c>
       <c r="AH7" t="n">
-        <v>95221.25726697993</v>
+        <v>130896.136141967</v>
       </c>
     </row>
     <row r="8">
@@ -16014,28 +16014,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>76.78613753647619</v>
+        <v>105.6105766199378</v>
       </c>
       <c r="AB8" t="n">
-        <v>105.062180942671</v>
+        <v>144.5010501411475</v>
       </c>
       <c r="AC8" t="n">
-        <v>95.03519384922606</v>
+        <v>130.7100727242132</v>
       </c>
       <c r="AD8" t="n">
-        <v>76786.13753647619</v>
+        <v>105610.5766199378</v>
       </c>
       <c r="AE8" t="n">
-        <v>105062.180942671</v>
+        <v>144501.0501411475</v>
       </c>
       <c r="AF8" t="n">
-        <v>4.007421846908628e-06</v>
+        <v>7.226329906051551e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.512152777777778</v>
       </c>
       <c r="AH8" t="n">
-        <v>95035.19384922607</v>
+        <v>130710.0727242132</v>
       </c>
     </row>
   </sheetData>
@@ -16311,28 +16311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>87.44870528002068</v>
+        <v>115.1186154324285</v>
       </c>
       <c r="AB2" t="n">
-        <v>119.651176528671</v>
+        <v>157.5103683094588</v>
       </c>
       <c r="AC2" t="n">
-        <v>108.2318361722868</v>
+        <v>142.4777998252377</v>
       </c>
       <c r="AD2" t="n">
-        <v>87448.70528002067</v>
+        <v>115118.6154324285</v>
       </c>
       <c r="AE2" t="n">
-        <v>119651.176528671</v>
+        <v>157510.3683094588</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.748954630577325e-06</v>
+        <v>6.994351014534946e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.137152777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>108231.8361722868</v>
+        <v>142477.7998252377</v>
       </c>
     </row>
     <row r="3">
@@ -16417,28 +16417,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.4880235094694</v>
+        <v>102.2431850078978</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.9177999452864</v>
+        <v>139.8936363787236</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.19090816106448</v>
+        <v>126.5423840647276</v>
       </c>
       <c r="AD3" t="n">
-        <v>74488.02350946941</v>
+        <v>102243.1850078978</v>
       </c>
       <c r="AE3" t="n">
-        <v>101917.7999452864</v>
+        <v>139893.6363787235</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.087517371857599e-06</v>
+        <v>7.626000870642366e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.633680555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>92190.90816106448</v>
+        <v>126542.3840647276</v>
       </c>
     </row>
     <row r="4">
@@ -16523,28 +16523,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>73.14371537872171</v>
+        <v>100.89887687715</v>
       </c>
       <c r="AB4" t="n">
-        <v>100.0784582541093</v>
+        <v>138.0542946875464</v>
       </c>
       <c r="AC4" t="n">
-        <v>90.5271106593604</v>
+        <v>124.8785865630235</v>
       </c>
       <c r="AD4" t="n">
-        <v>73143.71537872171</v>
+        <v>100898.87687715</v>
       </c>
       <c r="AE4" t="n">
-        <v>100078.4582541093</v>
+        <v>138054.2946875464</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.180264843781665e-06</v>
+        <v>7.799038007196815e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.503472222222222</v>
       </c>
       <c r="AH4" t="n">
-        <v>90527.11065936041</v>
+        <v>124878.5865630235</v>
       </c>
     </row>
     <row r="5">
@@ -16629,28 +16629,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>72.23305112486007</v>
+        <v>99.81762042269622</v>
       </c>
       <c r="AB5" t="n">
-        <v>98.83244724630501</v>
+        <v>136.5748719048952</v>
       </c>
       <c r="AC5" t="n">
-        <v>89.40001719335314</v>
+        <v>123.5403578143652</v>
       </c>
       <c r="AD5" t="n">
-        <v>72233.05112486007</v>
+        <v>99817.62042269623</v>
       </c>
       <c r="AE5" t="n">
-        <v>98832.447246305</v>
+        <v>136574.8719048952</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.238543558272545e-06</v>
+        <v>7.907767460068938e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.434027777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>89400.01719335314</v>
+        <v>123540.3578143652</v>
       </c>
     </row>
   </sheetData>
@@ -30499,28 +30499,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>72.2974426897463</v>
+        <v>99.19791062922403</v>
       </c>
       <c r="AB2" t="n">
-        <v>98.92055062613765</v>
+        <v>135.7269576258005</v>
       </c>
       <c r="AC2" t="n">
-        <v>89.47971211026847</v>
+        <v>122.7733672840118</v>
       </c>
       <c r="AD2" t="n">
-        <v>72297.4426897463</v>
+        <v>99197.91062922403</v>
       </c>
       <c r="AE2" t="n">
-        <v>98920.55062613766</v>
+        <v>135726.9576258005</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.063396801651935e-06</v>
+        <v>7.814062734989822e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.859375</v>
       </c>
       <c r="AH2" t="n">
-        <v>89479.71211026846</v>
+        <v>122773.3672840118</v>
       </c>
     </row>
     <row r="3">
@@ -30605,28 +30605,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>69.3311062206467</v>
+        <v>96.06098195953224</v>
       </c>
       <c r="AB3" t="n">
-        <v>94.86187820358865</v>
+        <v>131.4348734284046</v>
       </c>
       <c r="AC3" t="n">
-        <v>85.80839368734372</v>
+        <v>118.890913578436</v>
       </c>
       <c r="AD3" t="n">
-        <v>69331.1062206467</v>
+        <v>96060.98195953225</v>
       </c>
       <c r="AE3" t="n">
-        <v>94861.87820358864</v>
+        <v>131434.8734284046</v>
       </c>
       <c r="AF3" t="n">
-        <v>4.365762586822245e-06</v>
+        <v>8.395523352686504e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.451388888888889</v>
       </c>
       <c r="AH3" t="n">
-        <v>85808.39368734372</v>
+        <v>118890.913578436</v>
       </c>
     </row>
     <row r="4">
@@ -30711,28 +30711,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>68.68429852824917</v>
+        <v>95.4141742671347</v>
       </c>
       <c r="AB4" t="n">
-        <v>93.9768873837093</v>
+        <v>130.5498826085252</v>
       </c>
       <c r="AC4" t="n">
-        <v>85.00786514922095</v>
+        <v>118.0903850403133</v>
       </c>
       <c r="AD4" t="n">
-        <v>68684.29852824917</v>
+        <v>95414.1742671347</v>
       </c>
       <c r="AE4" t="n">
-        <v>93976.8873837093</v>
+        <v>130549.8826085252</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.415352330979349e-06</v>
+        <v>8.490886269667234e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.390625</v>
       </c>
       <c r="AH4" t="n">
-        <v>85007.86514922095</v>
+        <v>118090.3850403133</v>
       </c>
     </row>
   </sheetData>
@@ -31008,28 +31008,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>61.74517693897517</v>
+        <v>86.78078498869053</v>
       </c>
       <c r="AB2" t="n">
-        <v>84.48247509283058</v>
+        <v>118.7372985195099</v>
       </c>
       <c r="AC2" t="n">
-        <v>76.41958624188933</v>
+        <v>107.4051773976839</v>
       </c>
       <c r="AD2" t="n">
-        <v>61745.17693897517</v>
+        <v>86780.78498869053</v>
       </c>
       <c r="AE2" t="n">
-        <v>84482.47509283059</v>
+        <v>118737.2985195099</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.70493010528463e-06</v>
+        <v>9.704385642219214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.434027777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>76419.58624188934</v>
+        <v>107405.1773976839</v>
       </c>
     </row>
   </sheetData>
@@ -31305,28 +31305,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>115.9553909023336</v>
+        <v>145.6861583214464</v>
       </c>
       <c r="AB2" t="n">
-        <v>158.6552814233108</v>
+        <v>199.334229035009</v>
       </c>
       <c r="AC2" t="n">
-        <v>143.5134440383997</v>
+        <v>180.3100499833118</v>
       </c>
       <c r="AD2" t="n">
-        <v>115955.3909023336</v>
+        <v>145686.1583214464</v>
       </c>
       <c r="AE2" t="n">
-        <v>158655.2814233108</v>
+        <v>199334.229035009</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.967347063218701e-06</v>
+        <v>5.213511734833803e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.204861111111111</v>
       </c>
       <c r="AH2" t="n">
-        <v>143513.4440383996</v>
+        <v>180310.0499833118</v>
       </c>
     </row>
     <row r="3">
@@ -31411,28 +31411,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>98.23671376630763</v>
+        <v>127.8821403308488</v>
       </c>
       <c r="AB3" t="n">
-        <v>134.4118056729461</v>
+        <v>174.9739861624466</v>
       </c>
       <c r="AC3" t="n">
-        <v>121.5837315877101</v>
+        <v>158.2747145006835</v>
       </c>
       <c r="AD3" t="n">
-        <v>98236.71376630763</v>
+        <v>127882.1403308488</v>
       </c>
       <c r="AE3" t="n">
-        <v>134411.8056729461</v>
+        <v>174973.9861624466</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.415120301299028e-06</v>
+        <v>6.000231650482664e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.258680555555555</v>
       </c>
       <c r="AH3" t="n">
-        <v>121583.7315877101</v>
+        <v>158274.7145006835</v>
       </c>
     </row>
     <row r="4">
@@ -31517,28 +31517,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>85.9546564467658</v>
+        <v>125.4248786183716</v>
       </c>
       <c r="AB4" t="n">
-        <v>117.60695300223</v>
+        <v>171.6118522807011</v>
       </c>
       <c r="AC4" t="n">
-        <v>106.382710470123</v>
+        <v>155.2334579578262</v>
       </c>
       <c r="AD4" t="n">
-        <v>85954.6564467658</v>
+        <v>125424.8786183716</v>
       </c>
       <c r="AE4" t="n">
-        <v>117606.95300223</v>
+        <v>171611.8522807011</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.563549202353915e-06</v>
+        <v>6.261015374446101e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.998263888888889</v>
       </c>
       <c r="AH4" t="n">
-        <v>106382.710470123</v>
+        <v>155233.4579578262</v>
       </c>
     </row>
     <row r="5">
@@ -31623,28 +31623,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>84.32468146341334</v>
+        <v>114.0553593739751</v>
       </c>
       <c r="AB5" t="n">
-        <v>115.3767493205872</v>
+        <v>156.0555744627369</v>
       </c>
       <c r="AC5" t="n">
-        <v>104.3653542977449</v>
+        <v>141.1618494614305</v>
       </c>
       <c r="AD5" t="n">
-        <v>84324.68146341335</v>
+        <v>114055.3593739751</v>
       </c>
       <c r="AE5" t="n">
-        <v>115376.7493205872</v>
+        <v>156055.5744627369</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.66886995848475e-06</v>
+        <v>6.446059788298411e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.824652777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>104365.3542977449</v>
+        <v>141161.8494614305</v>
       </c>
     </row>
     <row r="6">
@@ -31729,28 +31729,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>83.6421446670672</v>
+        <v>113.372822577629</v>
       </c>
       <c r="AB6" t="n">
-        <v>114.4428723644285</v>
+        <v>155.1216975065783</v>
       </c>
       <c r="AC6" t="n">
-        <v>103.5206052475772</v>
+        <v>140.3171004112628</v>
       </c>
       <c r="AD6" t="n">
-        <v>83642.1446670672</v>
+        <v>113372.8225776289</v>
       </c>
       <c r="AE6" t="n">
-        <v>114442.8723644285</v>
+        <v>155121.6975065783</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.693956880059627e-06</v>
+        <v>6.490136519882213e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.78125</v>
       </c>
       <c r="AH6" t="n">
-        <v>103520.6052475772</v>
+        <v>140317.1004112628</v>
       </c>
     </row>
     <row r="7">
@@ -31835,28 +31835,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>82.63682022671671</v>
+        <v>112.3674981372785</v>
       </c>
       <c r="AB7" t="n">
-        <v>113.0673431133576</v>
+        <v>153.7461682555073</v>
       </c>
       <c r="AC7" t="n">
-        <v>102.2763545776606</v>
+        <v>139.0728497413462</v>
       </c>
       <c r="AD7" t="n">
-        <v>82636.82022671671</v>
+        <v>112367.4981372785</v>
       </c>
       <c r="AE7" t="n">
-        <v>113067.3431133576</v>
+        <v>153746.1682555073</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.751811900374602e-06</v>
+        <v>6.591785508323758e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.694444444444445</v>
       </c>
       <c r="AH7" t="n">
-        <v>102276.3545776606</v>
+        <v>139072.8497413462</v>
       </c>
     </row>
     <row r="8">
@@ -31941,28 +31941,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>82.21634346944987</v>
+        <v>111.9470213800116</v>
       </c>
       <c r="AB8" t="n">
-        <v>112.49202826394</v>
+        <v>153.1708534060898</v>
       </c>
       <c r="AC8" t="n">
-        <v>101.7559469700118</v>
+        <v>138.5524421336974</v>
       </c>
       <c r="AD8" t="n">
-        <v>82216.34346944987</v>
+        <v>111947.0213800116</v>
       </c>
       <c r="AE8" t="n">
-        <v>112492.02826394</v>
+        <v>153170.8534060898</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.748636029046674e-06</v>
+        <v>6.586205627681648e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.703125</v>
       </c>
       <c r="AH8" t="n">
-        <v>101755.9469700118</v>
+        <v>138552.4421336974</v>
       </c>
     </row>
     <row r="9">
@@ -32047,28 +32047,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>81.41110749388302</v>
+        <v>111.1417854044448</v>
       </c>
       <c r="AB9" t="n">
-        <v>111.390268877666</v>
+        <v>152.0690940198158</v>
       </c>
       <c r="AC9" t="n">
-        <v>100.7593379532344</v>
+        <v>137.55583311692</v>
       </c>
       <c r="AD9" t="n">
-        <v>81411.10749388303</v>
+        <v>111141.7854044448</v>
       </c>
       <c r="AE9" t="n">
-        <v>111390.268877666</v>
+        <v>152069.0940198158</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.782388894090005e-06</v>
+        <v>6.645508080087331e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.651041666666667</v>
       </c>
       <c r="AH9" t="n">
-        <v>100759.3379532344</v>
+        <v>137555.83311692</v>
       </c>
     </row>
     <row r="10">
@@ -32153,28 +32153,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>80.98092031072926</v>
+        <v>110.711598221291</v>
       </c>
       <c r="AB10" t="n">
-        <v>110.8016677951562</v>
+        <v>151.480492937306</v>
       </c>
       <c r="AC10" t="n">
-        <v>100.2269121319324</v>
+        <v>137.0234072956179</v>
       </c>
       <c r="AD10" t="n">
-        <v>80980.92031072926</v>
+        <v>110711.598221291</v>
       </c>
       <c r="AE10" t="n">
-        <v>110801.6677951562</v>
+        <v>151480.492937306</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.776751107003994e-06</v>
+        <v>6.63560271057537e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.659722222222222</v>
       </c>
       <c r="AH10" t="n">
-        <v>100226.9121319324</v>
+        <v>137023.4072956179</v>
       </c>
     </row>
   </sheetData>
@@ -32450,28 +32450,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>129.5128719986425</v>
+        <v>180.6317241515764</v>
       </c>
       <c r="AB2" t="n">
-        <v>177.2052251731245</v>
+        <v>247.1482938933262</v>
       </c>
       <c r="AC2" t="n">
-        <v>160.2930071917467</v>
+        <v>223.560807599028</v>
       </c>
       <c r="AD2" t="n">
-        <v>129512.8719986425</v>
+        <v>180631.7241515764</v>
       </c>
       <c r="AE2" t="n">
-        <v>177205.2251731245</v>
+        <v>247148.2938933262</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.576428802134067e-06</v>
+        <v>4.405406128251652e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.994791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>160293.0071917466</v>
+        <v>223560.807599028</v>
       </c>
     </row>
     <row r="3">
@@ -32556,28 +32556,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>107.2174463743217</v>
+        <v>148.1637326094118</v>
       </c>
       <c r="AB3" t="n">
-        <v>146.699640229185</v>
+        <v>202.7241554786648</v>
       </c>
       <c r="AC3" t="n">
-        <v>132.6988324599895</v>
+        <v>183.3764466049779</v>
       </c>
       <c r="AD3" t="n">
-        <v>107217.4463743217</v>
+        <v>148163.7326094118</v>
       </c>
       <c r="AE3" t="n">
-        <v>146699.6402291849</v>
+        <v>202724.1554786648</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.082789667621029e-06</v>
+        <v>5.27122677816651e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.684027777777778</v>
       </c>
       <c r="AH3" t="n">
-        <v>132698.8324599895</v>
+        <v>183376.4466049779</v>
       </c>
     </row>
     <row r="4">
@@ -32662,28 +32662,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>104.176176139827</v>
+        <v>134.8646451110527</v>
       </c>
       <c r="AB4" t="n">
-        <v>142.538440122978</v>
+        <v>184.5277572490868</v>
       </c>
       <c r="AC4" t="n">
-        <v>128.9347714516366</v>
+        <v>166.9166870836197</v>
       </c>
       <c r="AD4" t="n">
-        <v>104176.176139827</v>
+        <v>134864.6451110527</v>
       </c>
       <c r="AE4" t="n">
-        <v>142538.4401229779</v>
+        <v>184527.7572490868</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.24897491231444e-06</v>
+        <v>5.555385026510474e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.336805555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>128934.7714516366</v>
+        <v>166916.6870836197</v>
       </c>
     </row>
     <row r="5">
@@ -32768,28 +32768,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>102.2225393948225</v>
+        <v>132.9110083660482</v>
       </c>
       <c r="AB5" t="n">
-        <v>139.8653881400938</v>
+        <v>181.8547052662027</v>
       </c>
       <c r="AC5" t="n">
-        <v>126.516831798346</v>
+        <v>164.4987474303292</v>
       </c>
       <c r="AD5" t="n">
-        <v>102222.5393948225</v>
+        <v>132911.0083660482</v>
       </c>
       <c r="AE5" t="n">
-        <v>139865.3881400938</v>
+        <v>181854.7052662027</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.357677380720608e-06</v>
+        <v>5.741254133421542e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.137152777777778</v>
       </c>
       <c r="AH5" t="n">
-        <v>126516.831798346</v>
+        <v>164498.7474303292</v>
       </c>
     </row>
     <row r="6">
@@ -32874,28 +32874,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>101.3690405043812</v>
+        <v>132.0575094756069</v>
       </c>
       <c r="AB6" t="n">
-        <v>138.6975933044791</v>
+        <v>180.6869104305879</v>
       </c>
       <c r="AC6" t="n">
-        <v>125.4604896628316</v>
+        <v>163.4424052948148</v>
       </c>
       <c r="AD6" t="n">
-        <v>101369.0405043812</v>
+        <v>132057.5094756069</v>
       </c>
       <c r="AE6" t="n">
-        <v>138697.5933044791</v>
+        <v>180686.9104305879</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.405741806951708e-06</v>
+        <v>5.823438945861925e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>7</v>
+        <v>6.050347222222222</v>
       </c>
       <c r="AH6" t="n">
-        <v>125460.4896628316</v>
+        <v>163442.4052948148</v>
       </c>
     </row>
     <row r="7">
@@ -32980,28 +32980,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>90.11456717726675</v>
+        <v>130.9755125577852</v>
       </c>
       <c r="AB7" t="n">
-        <v>123.2987263860076</v>
+        <v>179.2064745132899</v>
       </c>
       <c r="AC7" t="n">
-        <v>111.5312689906088</v>
+        <v>162.1032601036584</v>
       </c>
       <c r="AD7" t="n">
-        <v>90114.56717726676</v>
+        <v>130975.5125577852</v>
       </c>
       <c r="AE7" t="n">
-        <v>123298.7263860076</v>
+        <v>179206.4745132899</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.436843713560281e-06</v>
+        <v>5.876619740091607e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.989583333333333</v>
       </c>
       <c r="AH7" t="n">
-        <v>111531.2689906088</v>
+        <v>162103.2601036584</v>
       </c>
     </row>
     <row r="8">
@@ -33086,28 +33086,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>89.52196309515357</v>
+        <v>130.382908475672</v>
       </c>
       <c r="AB8" t="n">
-        <v>122.4878993370138</v>
+        <v>178.3956474642961</v>
       </c>
       <c r="AC8" t="n">
-        <v>110.7978261371678</v>
+        <v>161.3698172502173</v>
       </c>
       <c r="AD8" t="n">
-        <v>89521.96309515357</v>
+        <v>130382.908475672</v>
       </c>
       <c r="AE8" t="n">
-        <v>122487.8993370138</v>
+        <v>178395.6474642961</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.463746506919644e-06</v>
+        <v>5.922620518624379e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.946180555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>110797.8261371678</v>
+        <v>161369.8172502173</v>
       </c>
     </row>
     <row r="9">
@@ -33192,28 +33192,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>88.95488715484511</v>
+        <v>119.7286074720914</v>
       </c>
       <c r="AB9" t="n">
-        <v>121.7120010178594</v>
+        <v>163.8179627966175</v>
       </c>
       <c r="AC9" t="n">
-        <v>110.0959784646131</v>
+        <v>148.1834063473084</v>
       </c>
       <c r="AD9" t="n">
-        <v>88954.88715484511</v>
+        <v>119728.6074720914</v>
       </c>
       <c r="AE9" t="n">
-        <v>121712.0010178594</v>
+        <v>163817.9627966175</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.488798843592911e-06</v>
+        <v>5.965457222443254e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.902777777777778</v>
       </c>
       <c r="AH9" t="n">
-        <v>110095.9784646131</v>
+        <v>148183.4063473084</v>
       </c>
     </row>
     <row r="10">
@@ -33298,28 +33298,28 @@
         <v>10</v>
       </c>
       <c r="AA10" t="n">
-        <v>88.3967234184877</v>
+        <v>119.170443735734</v>
       </c>
       <c r="AB10" t="n">
-        <v>120.9482967693294</v>
+        <v>163.0542585480875</v>
       </c>
       <c r="AC10" t="n">
-        <v>109.4051610776969</v>
+        <v>147.4925889603923</v>
       </c>
       <c r="AD10" t="n">
-        <v>88396.7234184877</v>
+        <v>119170.4437357339</v>
       </c>
       <c r="AE10" t="n">
-        <v>120948.2967693294</v>
+        <v>163054.2585480875</v>
       </c>
       <c r="AF10" t="n">
-        <v>3.51695899854667e-06</v>
+        <v>6.013607949179056e-06</v>
       </c>
       <c r="AG10" t="n">
-        <v>6</v>
+        <v>5.859375</v>
       </c>
       <c r="AH10" t="n">
-        <v>109405.1610776969</v>
+        <v>147492.5889603923</v>
       </c>
     </row>
     <row r="11">
@@ -33404,28 +33404,28 @@
         <v>10</v>
       </c>
       <c r="AA11" t="n">
-        <v>87.76378740328997</v>
+        <v>118.5375077205362</v>
       </c>
       <c r="AB11" t="n">
-        <v>120.08228579017</v>
+        <v>162.1882475689282</v>
       </c>
       <c r="AC11" t="n">
-        <v>108.6218009709342</v>
+        <v>146.7092288536295</v>
       </c>
       <c r="AD11" t="n">
-        <v>87763.78740328997</v>
+        <v>118537.5077205362</v>
       </c>
       <c r="AE11" t="n">
-        <v>120082.28579017</v>
+        <v>162188.2475689282</v>
       </c>
       <c r="AF11" t="n">
-        <v>3.519426274128128e-06</v>
+        <v>6.017826715464248e-06</v>
       </c>
       <c r="AG11" t="n">
-        <v>6</v>
+        <v>5.850694444444445</v>
       </c>
       <c r="AH11" t="n">
-        <v>108621.8009709342</v>
+        <v>146709.2288536295</v>
       </c>
     </row>
     <row r="12">
@@ -33510,28 +33510,28 @@
         <v>10</v>
       </c>
       <c r="AA12" t="n">
-        <v>87.0087458681015</v>
+        <v>117.7824661853478</v>
       </c>
       <c r="AB12" t="n">
-        <v>119.049204651644</v>
+        <v>161.1551664304022</v>
       </c>
       <c r="AC12" t="n">
-        <v>107.6873156463303</v>
+        <v>145.7747435290257</v>
       </c>
       <c r="AD12" t="n">
-        <v>87008.7458681015</v>
+        <v>117782.4661853478</v>
       </c>
       <c r="AE12" t="n">
-        <v>119049.204651644</v>
+        <v>161155.1664304022</v>
       </c>
       <c r="AF12" t="n">
-        <v>3.549247095338637e-06</v>
+        <v>6.068816996430466e-06</v>
       </c>
       <c r="AG12" t="n">
-        <v>6</v>
+        <v>5.798611111111111</v>
       </c>
       <c r="AH12" t="n">
-        <v>107687.3156463303</v>
+        <v>145774.7435290257</v>
       </c>
     </row>
     <row r="13">
@@ -33616,28 +33616,28 @@
         <v>10</v>
       </c>
       <c r="AA13" t="n">
-        <v>86.85690666054843</v>
+        <v>117.6306269777947</v>
       </c>
       <c r="AB13" t="n">
-        <v>118.841451549197</v>
+        <v>160.9474133279551</v>
       </c>
       <c r="AC13" t="n">
-        <v>107.4993902083974</v>
+        <v>145.5868180910928</v>
       </c>
       <c r="AD13" t="n">
-        <v>86856.90666054843</v>
+        <v>117630.6269777947</v>
       </c>
       <c r="AE13" t="n">
-        <v>118841.451549197</v>
+        <v>160947.4133279551</v>
       </c>
       <c r="AF13" t="n">
-        <v>3.54910475251663e-06</v>
+        <v>6.06857360606786e-06</v>
       </c>
       <c r="AG13" t="n">
-        <v>6</v>
+        <v>5.798611111111111</v>
       </c>
       <c r="AH13" t="n">
-        <v>107499.3902083974</v>
+        <v>145586.8180910928</v>
       </c>
     </row>
     <row r="14">
@@ -33722,28 +33722,28 @@
         <v>10</v>
       </c>
       <c r="AA14" t="n">
-        <v>86.75387580691353</v>
+        <v>117.5275961241598</v>
       </c>
       <c r="AB14" t="n">
-        <v>118.7004801898533</v>
+        <v>160.8064419686114</v>
       </c>
       <c r="AC14" t="n">
-        <v>107.3718729577349</v>
+        <v>145.4593008404302</v>
       </c>
       <c r="AD14" t="n">
-        <v>86753.87580691352</v>
+        <v>117527.5961241598</v>
       </c>
       <c r="AE14" t="n">
-        <v>118700.4801898533</v>
+        <v>160806.4419686114</v>
       </c>
       <c r="AF14" t="n">
-        <v>3.549840190430334e-06</v>
+        <v>6.069831122941331e-06</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>5.798611111111111</v>
       </c>
       <c r="AH14" t="n">
-        <v>107371.8729577349</v>
+        <v>145459.3008404303</v>
       </c>
     </row>
   </sheetData>
@@ -34019,28 +34019,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>58.56038444484682</v>
+        <v>82.97416984508824</v>
       </c>
       <c r="AB2" t="n">
-        <v>80.12490149923775</v>
+        <v>113.5289197440281</v>
       </c>
       <c r="AC2" t="n">
-        <v>72.47789335617465</v>
+        <v>102.6938789825269</v>
       </c>
       <c r="AD2" t="n">
-        <v>58560.38444484682</v>
+        <v>82974.16984508824</v>
       </c>
       <c r="AE2" t="n">
-        <v>80124.90149923775</v>
+        <v>113528.9197440281</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.730643147308054e-06</v>
+        <v>1.013994715379119e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.590277777777778</v>
       </c>
       <c r="AH2" t="n">
-        <v>72477.89335617465</v>
+        <v>102693.8789825269</v>
       </c>
     </row>
   </sheetData>
@@ -34316,28 +34316,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>90.71700552237039</v>
+        <v>118.7664861015876</v>
       </c>
       <c r="AB2" t="n">
-        <v>124.123009107482</v>
+        <v>162.5015458916957</v>
       </c>
       <c r="AC2" t="n">
-        <v>112.276883326034</v>
+        <v>146.9926264241892</v>
       </c>
       <c r="AD2" t="n">
-        <v>90717.00552237038</v>
+        <v>118766.4861015876</v>
       </c>
       <c r="AE2" t="n">
-        <v>124123.0091074821</v>
+        <v>162501.5458916957</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.580941312757586e-06</v>
+        <v>6.597642780922701e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.336805555555555</v>
       </c>
       <c r="AH2" t="n">
-        <v>112276.883326034</v>
+        <v>146992.6264241892</v>
       </c>
     </row>
     <row r="3">
@@ -34422,28 +34422,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>77.18801044427049</v>
+        <v>105.3227423695083</v>
       </c>
       <c r="AB3" t="n">
-        <v>105.6120411844963</v>
+        <v>144.1072226213592</v>
       </c>
       <c r="AC3" t="n">
-        <v>95.53257620130545</v>
+        <v>130.3538315501729</v>
       </c>
       <c r="AD3" t="n">
-        <v>77188.01044427049</v>
+        <v>105322.7423695083</v>
       </c>
       <c r="AE3" t="n">
-        <v>105612.0411844963</v>
+        <v>144107.2226213592</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.928208017763358e-06</v>
+        <v>7.237458256583709e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>6</v>
+        <v>5.772569444444445</v>
       </c>
       <c r="AH3" t="n">
-        <v>95532.57620130545</v>
+        <v>130353.8315501729</v>
       </c>
     </row>
     <row r="4">
@@ -34528,28 +34528,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>75.19293993535921</v>
+        <v>103.327671860597</v>
       </c>
       <c r="AB4" t="n">
-        <v>102.8822976979062</v>
+        <v>141.3774791347691</v>
       </c>
       <c r="AC4" t="n">
-        <v>93.06335560185565</v>
+        <v>127.8846109507231</v>
       </c>
       <c r="AD4" t="n">
-        <v>75192.9399353592</v>
+        <v>103327.671860597</v>
       </c>
       <c r="AE4" t="n">
-        <v>102882.2976979062</v>
+        <v>141377.4791347691</v>
       </c>
       <c r="AF4" t="n">
-        <v>4.085498331820596e-06</v>
+        <v>7.527255048659494e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>93063.35560185564</v>
+        <v>127884.6109507231</v>
       </c>
     </row>
     <row r="5">
@@ -34634,28 +34634,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>74.29414066456677</v>
+        <v>102.2582803892124</v>
       </c>
       <c r="AB5" t="n">
-        <v>101.6525208833833</v>
+        <v>139.9142905453994</v>
       </c>
       <c r="AC5" t="n">
-        <v>91.95094696050784</v>
+        <v>126.5610670267243</v>
       </c>
       <c r="AD5" t="n">
-        <v>74294.14066456677</v>
+        <v>102258.2803892124</v>
       </c>
       <c r="AE5" t="n">
-        <v>101652.5208833833</v>
+        <v>139914.2905453994</v>
       </c>
       <c r="AF5" t="n">
-        <v>4.135454989707214e-06</v>
+        <v>7.619296820494859e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.486111111111111</v>
       </c>
       <c r="AH5" t="n">
-        <v>91950.94696050783</v>
+        <v>126561.0670267243</v>
       </c>
     </row>
     <row r="6">
@@ -34740,28 +34740,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>73.75779662283094</v>
+        <v>101.7219363474765</v>
       </c>
       <c r="AB6" t="n">
-        <v>100.9186713036516</v>
+        <v>139.1804409656676</v>
       </c>
       <c r="AC6" t="n">
-        <v>91.28713495470107</v>
+        <v>125.8972550209175</v>
       </c>
       <c r="AD6" t="n">
-        <v>73757.79662283094</v>
+        <v>101721.9363474765</v>
       </c>
       <c r="AE6" t="n">
-        <v>100918.6713036516</v>
+        <v>139180.4409656676</v>
       </c>
       <c r="AF6" t="n">
-        <v>4.16307224252424e-06</v>
+        <v>7.670179745615144e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.451388888888889</v>
       </c>
       <c r="AH6" t="n">
-        <v>91287.13495470108</v>
+        <v>125897.2550209175</v>
       </c>
     </row>
   </sheetData>
@@ -35037,28 +35037,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>99.85695868593157</v>
+        <v>138.6266747949689</v>
       </c>
       <c r="AB2" t="n">
-        <v>136.6286962521355</v>
+        <v>189.6751322316546</v>
       </c>
       <c r="AC2" t="n">
-        <v>123.5890452414478</v>
+        <v>171.572803822239</v>
       </c>
       <c r="AD2" t="n">
-        <v>99856.95868593158</v>
+        <v>138626.6747949689</v>
       </c>
       <c r="AE2" t="n">
-        <v>136628.6962521355</v>
+        <v>189675.1322316546</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.189758313858567e-06</v>
+        <v>5.698270444631135e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.848958333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>123589.0452414478</v>
+        <v>171572.803822239</v>
       </c>
     </row>
     <row r="3">
@@ -35143,28 +35143,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>93.56493835882185</v>
+        <v>122.620979735508</v>
       </c>
       <c r="AB3" t="n">
-        <v>128.0196764562424</v>
+        <v>167.7754341298807</v>
       </c>
       <c r="AC3" t="n">
-        <v>115.8016582120369</v>
+        <v>151.7631821708721</v>
       </c>
       <c r="AD3" t="n">
-        <v>93564.93835882185</v>
+        <v>122620.979735508</v>
       </c>
       <c r="AE3" t="n">
-        <v>128019.6764562424</v>
+        <v>167775.4341298807</v>
       </c>
       <c r="AF3" t="n">
-        <v>3.615617877231976e-06</v>
+        <v>6.459037476099029e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.041666666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>115801.6582120369</v>
+        <v>151763.1821708721</v>
       </c>
     </row>
     <row r="4">
@@ -35249,28 +35249,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>81.59272700302974</v>
+        <v>110.7340197257365</v>
       </c>
       <c r="AB4" t="n">
-        <v>111.6387687025676</v>
+        <v>151.5111710288552</v>
       </c>
       <c r="AC4" t="n">
-        <v>100.9841213036192</v>
+        <v>137.0511575131667</v>
       </c>
       <c r="AD4" t="n">
-        <v>81592.72700302974</v>
+        <v>110734.0197257365</v>
       </c>
       <c r="AE4" t="n">
-        <v>111638.7687025676</v>
+        <v>151511.1710288552</v>
       </c>
       <c r="AF4" t="n">
-        <v>3.7728656845831e-06</v>
+        <v>6.739949208257209e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.789930555555555</v>
       </c>
       <c r="AH4" t="n">
-        <v>100984.1213036192</v>
+        <v>137051.1575131667</v>
       </c>
     </row>
     <row r="5">
@@ -35355,28 +35355,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>80.85050952866513</v>
+        <v>109.9918022513719</v>
       </c>
       <c r="AB5" t="n">
-        <v>110.6232340098185</v>
+        <v>150.4956363361061</v>
       </c>
       <c r="AC5" t="n">
-        <v>100.0655078166338</v>
+        <v>136.1325440261813</v>
       </c>
       <c r="AD5" t="n">
-        <v>80850.50952866513</v>
+        <v>109991.8022513719</v>
       </c>
       <c r="AE5" t="n">
-        <v>110623.2340098185</v>
+        <v>150495.6363361061</v>
       </c>
       <c r="AF5" t="n">
-        <v>3.812410325945438e-06</v>
+        <v>6.810592824151092e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.729166666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>100065.5078166338</v>
+        <v>136132.5440261813</v>
       </c>
     </row>
     <row r="6">
@@ -35461,28 +35461,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>79.81430061751152</v>
+        <v>108.9555933402183</v>
       </c>
       <c r="AB6" t="n">
-        <v>109.205447263268</v>
+        <v>149.0778495895556</v>
       </c>
       <c r="AC6" t="n">
-        <v>98.78303264729749</v>
+        <v>134.850068856845</v>
       </c>
       <c r="AD6" t="n">
-        <v>79814.30061751152</v>
+        <v>108955.5933402183</v>
       </c>
       <c r="AE6" t="n">
-        <v>109205.447263268</v>
+        <v>149077.8495895556</v>
       </c>
       <c r="AF6" t="n">
-        <v>3.87207946672881e-06</v>
+        <v>6.917187389609291e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.642361111111111</v>
       </c>
       <c r="AH6" t="n">
-        <v>98783.03264729748</v>
+        <v>134850.068856845</v>
       </c>
     </row>
     <row r="7">
@@ -35567,28 +35567,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>78.8821053740656</v>
+        <v>108.0233980967724</v>
       </c>
       <c r="AB7" t="n">
-        <v>107.9299766056344</v>
+        <v>147.8023789319219</v>
       </c>
       <c r="AC7" t="n">
-        <v>97.62929111909362</v>
+        <v>133.6963273286411</v>
       </c>
       <c r="AD7" t="n">
-        <v>78882.10537406561</v>
+        <v>108023.3980967723</v>
       </c>
       <c r="AE7" t="n">
-        <v>107929.9766056344</v>
+        <v>147802.3789319219</v>
       </c>
       <c r="AF7" t="n">
-        <v>3.903297596455693e-06</v>
+        <v>6.972956300120935e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.590277777777778</v>
       </c>
       <c r="AH7" t="n">
-        <v>97629.29111909363</v>
+        <v>133696.3273286411</v>
       </c>
     </row>
     <row r="8">
@@ -35673,28 +35673,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>78.42470132644937</v>
+        <v>107.5659940491561</v>
       </c>
       <c r="AB8" t="n">
-        <v>107.3041362084437</v>
+        <v>147.1765385347313</v>
       </c>
       <c r="AC8" t="n">
-        <v>97.06318005103817</v>
+        <v>133.1302162605857</v>
       </c>
       <c r="AD8" t="n">
-        <v>78424.70132644937</v>
+        <v>107565.9940491561</v>
       </c>
       <c r="AE8" t="n">
-        <v>107304.1362084437</v>
+        <v>147176.5385347313</v>
       </c>
       <c r="AF8" t="n">
-        <v>3.929887091315738e-06</v>
+        <v>7.020456492232789e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="AH8" t="n">
-        <v>97063.18005103817</v>
+        <v>133130.2162605856</v>
       </c>
     </row>
     <row r="9">
@@ -35779,28 +35779,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>78.54331258847151</v>
+        <v>107.6846053111783</v>
       </c>
       <c r="AB9" t="n">
-        <v>107.4664253699019</v>
+        <v>147.3388276961895</v>
       </c>
       <c r="AC9" t="n">
-        <v>97.20998056270111</v>
+        <v>133.2770167722486</v>
       </c>
       <c r="AD9" t="n">
-        <v>78543.31258847151</v>
+        <v>107684.6053111783</v>
       </c>
       <c r="AE9" t="n">
-        <v>107466.4253699019</v>
+        <v>147338.8276961895</v>
       </c>
       <c r="AF9" t="n">
-        <v>3.928352598234884e-06</v>
+        <v>7.01771523232851e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.555555555555555</v>
       </c>
       <c r="AH9" t="n">
-        <v>97209.98056270111</v>
+        <v>133277.0167722486</v>
       </c>
     </row>
   </sheetData>
